--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{316D6261-6E41-4DB7-84A1-353303E22C8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D1D9AC-3A75-4900-91F9-8EF943C1283B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="428">
   <si>
     <t>Task</t>
   </si>
@@ -1044,12 +1044,6 @@
     <t>must have acquired skill 8 by the end of sprint 4</t>
   </si>
   <si>
-    <t>hiring should be kept to a minimum; hired workers can only be assigned to project tasks</t>
-  </si>
-  <si>
-    <t>costs depend on duration of assigned tasks and skills of hired worker</t>
-  </si>
-  <si>
     <t>base cost</t>
   </si>
   <si>
@@ -1089,19 +1083,10 @@
     <t>skill 13</t>
   </si>
   <si>
-    <t>hired workers have skills 1 and 8</t>
-  </si>
-  <si>
-    <t>'short' means duration of assigned tasks is at most 60 hours in total</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>hourly costs</t>
   </si>
   <si>
     <t>+5</t>
@@ -1750,61 +1735,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>92</v>
@@ -3588,13 +3573,13 @@
         <v>6</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -3617,7 +3602,7 @@
         <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I2">
         <v>8</v>
@@ -7455,7 +7440,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K229" t="s">
         <v>22</v>
@@ -7485,7 +7470,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K230" t="s">
         <v>22</v>
@@ -7513,7 +7498,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K231" t="s">
         <v>22</v>
@@ -7541,7 +7526,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K232" t="s">
         <v>22</v>
@@ -7619,7 +7604,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K236" t="s">
         <v>22</v>
@@ -7649,7 +7634,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K237" t="s">
         <v>22</v>
@@ -7677,7 +7662,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K238" t="s">
         <v>22</v>
@@ -7705,7 +7690,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K239" t="s">
         <v>22</v>
@@ -7733,7 +7718,7 @@
     </row>
     <row r="240" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K240" t="s">
         <v>22</v>
@@ -7741,7 +7726,7 @@
       <c r="O240" s="4"/>
       <c r="T240" s="1"/>
       <c r="U240" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V240" s="4" t="s">
         <v>30</v>
@@ -7759,7 +7744,7 @@
     </row>
     <row r="241" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K241" t="s">
         <v>22</v>
@@ -7767,7 +7752,7 @@
       <c r="O241" s="4"/>
       <c r="T241" s="1"/>
       <c r="U241" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V241" s="4" t="s">
         <v>30</v>
@@ -7785,7 +7770,7 @@
     </row>
     <row r="242" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K242" t="s">
         <v>22</v>
@@ -7793,7 +7778,7 @@
       <c r="O242" s="4"/>
       <c r="T242" s="1"/>
       <c r="U242" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V242" s="4" t="s">
         <v>30</v>
@@ -7811,7 +7796,7 @@
     </row>
     <row r="243" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K243" t="s">
         <v>22</v>
@@ -7819,7 +7804,7 @@
       <c r="O243" s="4"/>
       <c r="T243" s="1"/>
       <c r="U243" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V243" s="4" t="s">
         <v>30</v>
@@ -7837,7 +7822,7 @@
     </row>
     <row r="244" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L244" t="s">
         <v>22</v>
@@ -7845,7 +7830,7 @@
       <c r="O244" s="4"/>
       <c r="T244" s="1"/>
       <c r="U244" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V244" s="4" t="s">
         <v>276</v>
@@ -7860,7 +7845,7 @@
     </row>
     <row r="245" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L245" t="s">
         <v>22</v>
@@ -7868,7 +7853,7 @@
       <c r="O245" s="4"/>
       <c r="T245" s="1"/>
       <c r="U245" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V245" s="4" t="s">
         <v>276</v>
@@ -7883,7 +7868,7 @@
     </row>
     <row r="246" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L246" t="s">
         <v>22</v>
@@ -7891,7 +7876,7 @@
       <c r="O246" s="4"/>
       <c r="T246" s="1"/>
       <c r="U246" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V246" s="4" t="s">
         <v>276</v>
@@ -7906,7 +7891,7 @@
     </row>
     <row r="247" spans="1:26" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L247" t="s">
         <v>22</v>
@@ -7914,7 +7899,7 @@
       <c r="O247" s="4"/>
       <c r="T247" s="1"/>
       <c r="U247" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="V247" s="4" t="s">
         <v>276</v>
@@ -7929,7 +7914,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>22</v>
@@ -7953,7 +7938,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>22</v>
@@ -7977,7 +7962,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>22</v>
@@ -8001,7 +7986,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>22</v>
@@ -8025,7 +8010,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>22</v>
@@ -8049,7 +8034,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>22</v>
@@ -8073,7 +8058,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>22</v>
@@ -8097,7 +8082,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>22</v>
@@ -8121,7 +8106,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>22</v>
@@ -8148,7 +8133,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>22</v>
@@ -8175,7 +8160,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>22</v>
@@ -8202,7 +8187,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>22</v>
@@ -8237,7 +8222,7 @@
     </row>
     <row r="261" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
@@ -8260,7 +8245,7 @@
     </row>
     <row r="262" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I262" t="s">
         <v>22</v>
@@ -8283,7 +8268,7 @@
     </row>
     <row r="263" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I263" t="s">
         <v>22</v>
@@ -8306,7 +8291,7 @@
     </row>
     <row r="264" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I264" t="s">
         <v>22</v>
@@ -8337,7 +8322,7 @@
     </row>
     <row r="266" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I266" t="s">
         <v>22</v>
@@ -8360,7 +8345,7 @@
     </row>
     <row r="267" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I267" t="s">
         <v>22</v>
@@ -8383,7 +8368,7 @@
     </row>
     <row r="268" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I268" t="s">
         <v>22</v>
@@ -8406,7 +8391,7 @@
     </row>
     <row r="269" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I269" t="s">
         <v>22</v>
@@ -8437,7 +8422,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M271" t="s">
         <v>22</v>
@@ -8458,7 +8443,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M272" t="s">
         <v>22</v>
@@ -8479,7 +8464,7 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M273" t="s">
         <v>22</v>
@@ -8500,7 +8485,7 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M274" t="s">
         <v>22</v>
@@ -8563,7 +8548,7 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I278" t="s">
         <v>22</v>
@@ -8597,7 +8582,7 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I279" t="s">
         <v>22</v>
@@ -8631,7 +8616,7 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I280" t="s">
         <v>22</v>
@@ -8665,7 +8650,7 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I281" t="s">
         <v>22</v>
@@ -8707,7 +8692,7 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>22</v>
@@ -8736,7 +8721,7 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>22</v>
@@ -8765,7 +8750,7 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>22</v>
@@ -8794,7 +8779,7 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>22</v>
@@ -8831,7 +8816,7 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M288" t="s">
         <v>22</v>
@@ -8851,7 +8836,7 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M289" t="s">
         <v>22</v>
@@ -8871,7 +8856,7 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M290" t="s">
         <v>22</v>
@@ -8891,7 +8876,7 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M291" t="s">
         <v>22</v>
@@ -8911,7 +8896,7 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>22</v>
@@ -8940,7 +8925,7 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>22</v>
@@ -8969,7 +8954,7 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>22</v>
@@ -8998,7 +8983,7 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>22</v>
@@ -9498,19 +9483,19 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="R1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="S1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -10125,225 +10110,172 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C6A530-5E3B-DF44-97F6-49A96DE68D54}">
   <sheetPr codeName="Blad5"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:C17" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:C14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A9C79-8ED9-4BEF-885D-29C1271A6268}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B210FA-5309-4791-BB93-FA6D06DA30C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="412">
   <si>
     <t>Task</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>DurationExp</t>
-  </si>
-  <si>
-    <t>DurationStd</t>
   </si>
   <si>
     <t>Condition</t>
@@ -1035,9 +1029,6 @@
     <t>fri</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
     <t>prep check-up 1</t>
   </si>
   <si>
@@ -1274,6 +1265,33 @@
   </si>
   <si>
     <t>check-up 4.2</t>
+  </si>
+  <si>
+    <t>DurationExp.1</t>
+  </si>
+  <si>
+    <t>DurationStd.1</t>
+  </si>
+  <si>
+    <t>DurationExp.2</t>
+  </si>
+  <si>
+    <t>DurationStd.2</t>
+  </si>
+  <si>
+    <t>DurationExp.3</t>
+  </si>
+  <si>
+    <t>DurationStd.3</t>
+  </si>
+  <si>
+    <t>People.1</t>
+  </si>
+  <si>
+    <t>People.2</t>
+  </si>
+  <si>
+    <t>People.3</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1299,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1331,11 +1349,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1686,67 +1704,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>1</v>
@@ -1755,371 +1773,371 @@
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y15" s="1"/>
     </row>
@@ -2130,1350 +2148,1350 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="O17" s="3"/>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="O18" s="3"/>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="O19" s="3"/>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="N22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y23" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="O26" s="3"/>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="O29" s="3"/>
       <c r="P29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y30" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="Q33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O35" s="3"/>
       <c r="R35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X35" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O38" s="3"/>
       <c r="Q38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X43" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="Q54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X55" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="Q64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X64" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y65" s="1"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3484,13 +3502,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC006BA-5172-F749-B910-DD9D8C6897DD}">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:AH284"/>
+  <dimension ref="A1:AG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3509,121 +3527,117 @@
     <col min="22" max="33" width="11.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH1" s="8">
-        <f>SUM(V191,V195*AF195,V204,V208*AF208,V212*AF212,V225*AB225,V230,V235,V242,V247,V252)</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O2" s="4"/>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="7">
@@ -3657,16 +3671,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O3" s="4"/>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="7">
@@ -3694,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="O4" s="4"/>
       <c r="T4" s="1"/>
       <c r="U4" s="4"/>
@@ -3711,19 +3725,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O5" s="4"/>
       <c r="S5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V5" s="7">
         <v>3</v>
@@ -3750,16 +3764,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O6" s="4"/>
       <c r="S6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="7">
@@ -3793,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="O7" s="4"/>
       <c r="T7" s="1"/>
       <c r="U7" s="4"/>
@@ -3810,16 +3824,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O8" s="4"/>
       <c r="S8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="7">
@@ -3847,16 +3861,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O9" s="4"/>
       <c r="S9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="7">
@@ -3890,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="O10" s="4"/>
       <c r="T10" s="1"/>
       <c r="U10" s="4"/>
@@ -3907,16 +3921,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O11" s="4"/>
       <c r="S11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="7">
@@ -3944,16 +3958,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O12" s="4"/>
       <c r="S12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="7">
@@ -3981,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="O13" s="4"/>
       <c r="T13" s="1"/>
       <c r="U13" s="4"/>
@@ -3998,16 +4012,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O14" s="4"/>
       <c r="S14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="7">
@@ -4035,16 +4049,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O15" s="4"/>
       <c r="S15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="7">
@@ -4078,19 +4092,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O16" s="4"/>
       <c r="S16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V16" s="7">
         <v>2</v>
@@ -4125,17 +4139,17 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O17" s="4"/>
       <c r="S17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V17" s="7">
         <v>2</v>
@@ -4181,21 +4195,25 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
+      <c r="AG18" s="8">
+        <f>SUM(V191,V195*AF195,V204,V208*AF208,V212*AF212,V225*AB225,V230,V235,V242,V247,V252)</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V19" s="7">
         <v>6</v>
@@ -4230,18 +4248,18 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V20" s="7">
         <v>4</v>
@@ -4276,14 +4294,14 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O21" s="4"/>
       <c r="S21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="7">
@@ -4319,14 +4337,14 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O22" s="4"/>
       <c r="S22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="7">
@@ -4373,14 +4391,14 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O24" s="4"/>
       <c r="S24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="7">
@@ -4416,14 +4434,14 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" s="4"/>
       <c r="S25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="7">
@@ -4470,14 +4488,14 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O27" s="4"/>
       <c r="S27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="7">
@@ -4513,14 +4531,14 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O28" s="4"/>
       <c r="S28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="7">
@@ -4567,14 +4585,14 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O30" s="4"/>
       <c r="S30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="7">
@@ -4610,14 +4628,14 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O31" s="4"/>
       <c r="S31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="7">
@@ -4664,14 +4682,14 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O33" s="4"/>
       <c r="S33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="7">
@@ -4707,14 +4725,14 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O34" s="4"/>
       <c r="S34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="7">
@@ -4767,17 +4785,17 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O36" s="4"/>
       <c r="S36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V36" s="7">
         <v>2</v>
@@ -4812,17 +4830,17 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O37" s="4"/>
       <c r="S37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V37" s="7">
         <v>2</v>
@@ -4871,14 +4889,14 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O39" s="4"/>
       <c r="S39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="7">
@@ -4914,14 +4932,14 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O40" s="4"/>
       <c r="S40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="7">
@@ -4968,14 +4986,14 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O42" s="4"/>
       <c r="S42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="7">
@@ -5011,14 +5029,14 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O43" s="4"/>
       <c r="S43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="7">
@@ -5079,14 +5097,14 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="4"/>
       <c r="S46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="7">
@@ -5122,14 +5140,14 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="4"/>
       <c r="S47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="7">
@@ -5176,14 +5194,14 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="4"/>
       <c r="S49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="7">
@@ -5219,14 +5237,14 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O50" s="4"/>
       <c r="S50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="7">
@@ -5273,14 +5291,14 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O52" s="4"/>
       <c r="S52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="7">
@@ -5310,14 +5328,14 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O53" s="4"/>
       <c r="S53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="7">
@@ -5370,14 +5388,14 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O55" s="4"/>
       <c r="S55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="7">
@@ -5413,17 +5431,17 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O56" s="4"/>
       <c r="S56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V56" s="7">
         <v>30</v>
@@ -5475,17 +5493,17 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O58" s="4"/>
       <c r="S58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V58" s="7">
         <v>2</v>
@@ -5520,17 +5538,17 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O59" s="4"/>
       <c r="S59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V59" s="7">
         <v>2</v>
@@ -5579,18 +5597,18 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V61" s="7">
         <v>5</v>
@@ -5625,18 +5643,18 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V62" s="7">
         <v>5</v>
@@ -5688,14 +5706,14 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O64" s="4"/>
       <c r="S64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="7">
@@ -5731,14 +5749,14 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O65" s="4"/>
       <c r="S65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="7">
@@ -5785,14 +5803,14 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O67" s="4"/>
       <c r="S67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="7">
@@ -5836,11 +5854,11 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="4"/>
@@ -5894,14 +5912,14 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O71" s="4"/>
       <c r="S71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="7">
@@ -5937,15 +5955,15 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O72" s="4"/>
       <c r="P72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V72" s="7">
         <v>20</v>
@@ -5997,14 +6015,14 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O74" s="4"/>
       <c r="S74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="7">
@@ -6040,14 +6058,14 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O75" s="4"/>
       <c r="S75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="7">
@@ -6100,17 +6118,17 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O77" s="4"/>
       <c r="S77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V77" s="7">
         <v>2</v>
@@ -6145,17 +6163,17 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O78" s="4"/>
       <c r="S78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V78" s="7">
         <v>2</v>
@@ -6204,17 +6222,17 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O80" s="4"/>
       <c r="S80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V80" s="7">
         <v>4</v>
@@ -6249,15 +6267,15 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V81" s="7">
         <v>7</v>
@@ -6303,14 +6321,14 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O83" s="4"/>
       <c r="S83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="7">
@@ -6346,14 +6364,14 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O84" s="4"/>
       <c r="S84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="7">
@@ -6400,17 +6418,17 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O86" s="4"/>
       <c r="S86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V86" s="7">
         <v>6</v>
@@ -6439,14 +6457,14 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O87" s="4"/>
       <c r="S87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U87" s="4"/>
       <c r="V87" s="7">
@@ -6493,14 +6511,14 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O89" s="4"/>
       <c r="S89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89" s="7">
@@ -6536,14 +6554,14 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O90" s="4"/>
       <c r="S90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="7">
@@ -6590,14 +6608,14 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O92" s="4"/>
       <c r="S92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U92" s="4"/>
       <c r="V92" s="7">
@@ -6627,14 +6645,14 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O93" s="4"/>
       <c r="S93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U93" s="4"/>
       <c r="V93" s="7">
@@ -6687,14 +6705,14 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O95" s="4"/>
       <c r="S95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U95" s="4"/>
       <c r="V95" s="7">
@@ -6730,14 +6748,14 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O96" s="4"/>
       <c r="S96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U96" s="4"/>
       <c r="V96" s="7">
@@ -6790,17 +6808,17 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O98" s="4"/>
       <c r="S98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V98" s="7">
         <v>2</v>
@@ -6835,17 +6853,17 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O99" s="4"/>
       <c r="S99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U99" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V99" s="7">
         <v>1</v>
@@ -6894,7 +6912,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O101" s="4"/>
       <c r="T101" s="1"/>
@@ -6932,15 +6950,15 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T102" s="1"/>
       <c r="U102" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V102" s="7">
         <v>7</v>
@@ -6986,14 +7004,14 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O104" s="4"/>
       <c r="S104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U104" s="4"/>
       <c r="V104" s="7">
@@ -7023,14 +7041,14 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O105" s="4"/>
       <c r="S105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U105" s="4"/>
       <c r="V105" s="7">
@@ -7077,14 +7095,14 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O107" s="4"/>
       <c r="S107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U107" s="4"/>
       <c r="V107" s="7">
@@ -7120,14 +7138,14 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O108" s="4"/>
       <c r="S108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U108" s="4"/>
       <c r="V108" s="7">
@@ -7174,14 +7192,14 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O110" s="4"/>
       <c r="S110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U110" s="4"/>
       <c r="V110" s="7">
@@ -7217,14 +7235,14 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O111" s="4"/>
       <c r="S111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U111" s="4"/>
       <c r="V111" s="7">
@@ -7271,14 +7289,14 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O113" s="4"/>
       <c r="S113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U113" s="4"/>
       <c r="V113" s="7">
@@ -7308,14 +7326,14 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O114" s="4"/>
       <c r="S114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U114" s="4"/>
       <c r="V114" s="7">
@@ -7368,17 +7386,17 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O116" s="4"/>
       <c r="S116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U116" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="V116" s="7">
         <v>12</v>
@@ -7407,17 +7425,17 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O117" s="4"/>
       <c r="S117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U117" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="V117" s="7">
         <v>8</v>
@@ -7463,17 +7481,17 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O119" s="4"/>
       <c r="S119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U119" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V119" s="7">
         <v>2</v>
@@ -7508,17 +7526,17 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O120" s="4"/>
       <c r="S120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U120" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V120" s="7">
         <v>1</v>
@@ -7567,17 +7585,17 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O122" s="4"/>
       <c r="S122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U122" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V122" s="7">
         <v>12</v>
@@ -7612,15 +7630,15 @@
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T123" s="1"/>
       <c r="U123" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V123" s="7">
         <v>25</v>
@@ -7672,14 +7690,14 @@
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O125" s="4"/>
       <c r="S125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U125" s="4"/>
       <c r="V125" s="7">
@@ -7715,14 +7733,14 @@
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O126" s="4"/>
       <c r="S126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U126" s="4"/>
       <c r="V126" s="7">
@@ -7775,14 +7793,14 @@
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O128" s="4"/>
       <c r="S128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U128" s="4"/>
       <c r="V128" s="7">
@@ -7818,14 +7836,14 @@
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O129" s="4"/>
       <c r="S129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U129" s="4"/>
       <c r="V129" s="7">
@@ -7886,17 +7904,17 @@
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O132" s="4"/>
       <c r="S132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U132" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V132" s="7">
         <v>2</v>
@@ -7931,17 +7949,17 @@
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O133" s="4"/>
       <c r="S133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U133" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V133" s="7">
         <v>1</v>
@@ -7990,14 +8008,14 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O135" s="4"/>
       <c r="S135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U135" s="4"/>
       <c r="V135" s="7">
@@ -8027,15 +8045,15 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O136" s="4"/>
       <c r="P136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T136" s="1"/>
       <c r="U136" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V136" s="7">
         <v>35</v>
@@ -8095,14 +8113,14 @@
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O139" s="4"/>
       <c r="S139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="7">
@@ -8138,14 +8156,14 @@
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O140" s="4"/>
       <c r="S140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U140" s="4"/>
       <c r="V140" s="7">
@@ -8198,17 +8216,17 @@
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O142" s="4"/>
       <c r="S142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U142" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="V142" s="7">
         <v>12</v>
@@ -8237,17 +8255,17 @@
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O143" s="4"/>
       <c r="S143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U143" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="V143" s="7">
         <v>4</v>
@@ -8293,14 +8311,14 @@
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O145" s="4"/>
       <c r="S145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="7">
@@ -8336,14 +8354,14 @@
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O146" s="4"/>
       <c r="S146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U146" s="4"/>
       <c r="V146" s="7">
@@ -8404,17 +8422,17 @@
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O149" s="4"/>
       <c r="S149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U149" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V149" s="7">
         <v>2</v>
@@ -8449,17 +8467,17 @@
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O150" s="4"/>
       <c r="S150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U150" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V150" s="7">
         <v>1</v>
@@ -8508,14 +8526,14 @@
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O152" s="4"/>
       <c r="S152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U152" s="4"/>
       <c r="V152" s="7">
@@ -8551,15 +8569,15 @@
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O153" s="4"/>
       <c r="P153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T153" s="1"/>
       <c r="U153" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V153" s="7">
         <v>22</v>
@@ -8619,14 +8637,14 @@
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O156" s="4"/>
       <c r="S156" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U156" s="4"/>
       <c r="V156" s="7">
@@ -8662,14 +8680,14 @@
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O157" s="4"/>
       <c r="S157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U157" s="4"/>
       <c r="V157" s="7">
@@ -8722,17 +8740,17 @@
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O159" s="4"/>
       <c r="S159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V159" s="7">
         <v>4</v>
@@ -8761,14 +8779,14 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O160" s="4"/>
       <c r="S160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U160" s="4"/>
       <c r="V160" s="7">
@@ -8821,14 +8839,14 @@
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O162" s="4"/>
       <c r="S162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U162" s="4"/>
       <c r="V162" s="7">
@@ -8864,14 +8882,14 @@
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O163" s="4"/>
       <c r="S163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U163" s="4"/>
       <c r="V163" s="7">
@@ -8924,14 +8942,14 @@
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O165" s="4"/>
       <c r="S165" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U165" s="4"/>
       <c r="V165" s="7">
@@ -8967,14 +8985,14 @@
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O166" s="4"/>
       <c r="S166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U166" s="4"/>
       <c r="V166" s="7">
@@ -9027,14 +9045,14 @@
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O168" s="4"/>
       <c r="S168" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U168" s="4"/>
       <c r="V168" s="7">
@@ -9070,14 +9088,14 @@
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O169" s="4"/>
       <c r="S169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U169" s="4"/>
       <c r="V169" s="7">
@@ -9130,17 +9148,17 @@
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O171" s="4"/>
       <c r="S171" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V171" s="7">
         <v>4</v>
@@ -9175,14 +9193,14 @@
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O172" s="4"/>
       <c r="S172" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U172" s="4"/>
       <c r="V172" s="7">
@@ -9232,14 +9250,14 @@
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O174" s="4"/>
       <c r="S174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U174" s="4"/>
       <c r="V174" s="7">
@@ -9275,15 +9293,15 @@
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O175" s="4"/>
       <c r="P175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T175" s="1"/>
       <c r="U175" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V175" s="7">
         <v>25</v>
@@ -9343,14 +9361,14 @@
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O178" s="4"/>
       <c r="S178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U178" s="4"/>
       <c r="V178" s="7">
@@ -9386,14 +9404,14 @@
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O179" s="4"/>
       <c r="S179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U179" s="4"/>
       <c r="V179" s="7">
@@ -9446,17 +9464,17 @@
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O181" s="4"/>
       <c r="S181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V181" s="7">
         <v>2</v>
@@ -9491,14 +9509,14 @@
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O182" s="4"/>
       <c r="S182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U182" s="4"/>
       <c r="V182" s="7">
@@ -9551,14 +9569,14 @@
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O184" s="4"/>
       <c r="S184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U184" s="4"/>
       <c r="V184" s="7">
@@ -9594,14 +9612,14 @@
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O185" s="4"/>
       <c r="S185" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U185" s="4"/>
       <c r="V185" s="7">
@@ -9662,14 +9680,14 @@
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O188" s="4"/>
       <c r="S188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U188" s="4"/>
       <c r="V188" s="7">
@@ -9705,14 +9723,14 @@
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O189" s="4"/>
       <c r="S189" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U189" s="4"/>
       <c r="V189" s="7">
@@ -9756,20 +9774,20 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K191" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O191" s="4"/>
       <c r="S191" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U191" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V191" s="7">
         <v>10</v>
@@ -9805,20 +9823,20 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O192" s="4"/>
       <c r="S192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U192" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V192" s="7">
         <v>30</v>
@@ -9854,20 +9872,20 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O193" s="4"/>
       <c r="S193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U193" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V193" s="7">
         <v>15</v>
@@ -9903,20 +9921,20 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K194" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O194" s="4"/>
       <c r="S194" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U194" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V194" s="7">
         <v>0</v>
@@ -9952,15 +9970,15 @@
     </row>
     <row r="195" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O195" s="4"/>
       <c r="T195" s="1"/>
       <c r="U195" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V195" s="7">
         <v>10</v>
@@ -9990,15 +10008,15 @@
     </row>
     <row r="196" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O196" s="4"/>
       <c r="T196" s="1"/>
       <c r="U196" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V196" s="7">
         <v>10</v>
@@ -10028,15 +10046,15 @@
     </row>
     <row r="197" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O197" s="4"/>
       <c r="T197" s="1"/>
       <c r="U197" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V197" s="7">
         <v>10</v>
@@ -10066,15 +10084,15 @@
     </row>
     <row r="198" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O198" s="4"/>
       <c r="T198" s="1"/>
       <c r="U198" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V198" s="7">
         <v>10</v>
@@ -10104,18 +10122,18 @@
     </row>
     <row r="199" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O199" s="4"/>
       <c r="T199" s="1"/>
       <c r="U199" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V199" s="7">
         <v>6</v>
@@ -10145,18 +10163,18 @@
     </row>
     <row r="200" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O200" s="4"/>
       <c r="T200" s="1"/>
       <c r="U200" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V200" s="7">
         <v>6</v>
@@ -10186,18 +10204,18 @@
     </row>
     <row r="201" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K201" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L201" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O201" s="4"/>
       <c r="T201" s="1"/>
       <c r="U201" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V201" s="7">
         <v>6</v>
@@ -10227,18 +10245,18 @@
     </row>
     <row r="202" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O202" s="4"/>
       <c r="T202" s="1"/>
       <c r="U202" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V202" s="7">
         <v>6</v>
@@ -10281,23 +10299,23 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O204" s="4"/>
       <c r="S204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U204" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V204" s="10">
         <v>3</v>
@@ -10318,31 +10336,31 @@
         <v>1</v>
       </c>
       <c r="AE204" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG204" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O205" s="4"/>
       <c r="S205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U205" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V205" s="10">
         <v>75</v>
@@ -10363,31 +10381,31 @@
         <v>25</v>
       </c>
       <c r="AE205" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG205" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O206" s="4"/>
       <c r="S206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U206" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V206" s="10">
         <v>30</v>
@@ -10408,31 +10426,31 @@
         <v>10</v>
       </c>
       <c r="AE206" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG206" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O207" s="4"/>
       <c r="S207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U207" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V207" s="10">
         <v>0</v>
@@ -10453,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="AE207" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG207" s="8">
         <v>4</v>
@@ -10461,15 +10479,15 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O208" s="4"/>
       <c r="T208" s="1"/>
       <c r="U208" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V208" s="7">
         <v>1.5</v>
@@ -10508,15 +10526,15 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O209" s="4"/>
       <c r="T209" s="1"/>
       <c r="U209" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V209" s="7">
         <v>1.5</v>
@@ -10555,15 +10573,15 @@
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O210" s="4"/>
       <c r="T210" s="1"/>
       <c r="U210" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V210" s="7">
         <v>1.5</v>
@@ -10602,15 +10620,15 @@
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K211" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O211" s="4"/>
       <c r="T211" s="1"/>
       <c r="U211" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V211" s="7">
         <v>1.5</v>
@@ -10649,13 +10667,13 @@
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O212" s="4"/>
       <c r="T212" s="1"/>
@@ -10688,13 +10706,13 @@
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L213" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O213" s="4"/>
       <c r="T213" s="1"/>
@@ -10727,13 +10745,13 @@
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O214" s="4"/>
       <c r="T214" s="1"/>
@@ -10766,13 +10784,13 @@
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L215" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O215" s="4"/>
       <c r="T215" s="1"/>
@@ -10805,13 +10823,13 @@
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L216" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O216" s="4"/>
       <c r="T216" s="1"/>
@@ -10844,13 +10862,13 @@
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L217" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O217" s="4"/>
       <c r="T217" s="1"/>
@@ -10883,13 +10901,13 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L218" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O218" s="4"/>
       <c r="T218" s="1"/>
@@ -10922,13 +10940,13 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L219" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O219" s="4"/>
       <c r="T219" s="1"/>
@@ -10961,16 +10979,16 @@
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O220" s="4"/>
       <c r="T220" s="1"/>
@@ -11003,16 +11021,16 @@
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O221" s="4"/>
       <c r="T221" s="1"/>
@@ -11045,16 +11063,16 @@
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L222" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O222" s="4"/>
       <c r="T222" s="1"/>
@@ -11087,16 +11105,16 @@
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L223" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O223" s="4"/>
       <c r="T223" s="1"/>
@@ -11141,15 +11159,15 @@
     </row>
     <row r="225" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I225" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O225" s="4"/>
       <c r="T225" s="1"/>
       <c r="U225" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V225" s="10">
         <v>25</v>
@@ -11185,15 +11203,15 @@
     </row>
     <row r="226" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I226" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O226" s="4"/>
       <c r="T226" s="1"/>
       <c r="U226" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V226" s="10">
         <v>25</v>
@@ -11229,15 +11247,15 @@
     </row>
     <row r="227" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I227" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O227" s="4"/>
       <c r="T227" s="1"/>
       <c r="U227" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V227" s="10">
         <v>20</v>
@@ -11273,15 +11291,15 @@
     </row>
     <row r="228" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O228" s="4"/>
       <c r="T228" s="1"/>
       <c r="U228" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V228" s="10">
         <v>20</v>
@@ -11329,15 +11347,15 @@
     </row>
     <row r="230" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I230" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O230" s="4"/>
       <c r="T230" s="1"/>
       <c r="U230" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V230" s="10">
         <v>40</v>
@@ -11373,15 +11391,15 @@
     </row>
     <row r="231" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O231" s="4"/>
       <c r="T231" s="1"/>
       <c r="U231" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V231" s="10">
         <v>40</v>
@@ -11417,15 +11435,15 @@
     </row>
     <row r="232" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I232" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O232" s="4"/>
       <c r="T232" s="1"/>
       <c r="U232" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V232" s="10">
         <v>40</v>
@@ -11461,15 +11479,15 @@
     </row>
     <row r="233" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I233" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O233" s="4"/>
       <c r="T233" s="1"/>
       <c r="U233" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V233" s="10">
         <v>40</v>
@@ -11517,10 +11535,10 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M235" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O235" s="4"/>
       <c r="T235" s="1"/>
@@ -11559,10 +11577,10 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M236" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O236" s="4"/>
       <c r="T236" s="1"/>
@@ -11601,10 +11619,10 @@
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M237" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O237" s="4"/>
       <c r="T237" s="1"/>
@@ -11643,10 +11661,10 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M238" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O238" s="4"/>
       <c r="T238" s="1"/>
@@ -11697,45 +11715,45 @@
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O240" s="4"/>
       <c r="Q240" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R240" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T240" s="1"/>
       <c r="U240" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="V240" s="10">
         <v>3</v>
       </c>
       <c r="W240" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X240" s="10">
         <v>3</v>
       </c>
       <c r="Y240" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z240" s="10">
         <v>3</v>
       </c>
       <c r="AA240" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB240" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC240" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD240" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE240" s="7"/>
     </row>
@@ -11753,26 +11771,26 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O242" s="4"/>
       <c r="S242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T242" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V242" s="10">
         <v>40</v>
@@ -11808,26 +11826,26 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O243" s="4"/>
       <c r="S243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T243" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V243" s="10">
         <v>40</v>
@@ -11863,26 +11881,26 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O244" s="4"/>
       <c r="S244" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V244" s="10">
         <v>40</v>
@@ -11918,26 +11936,26 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O245" s="4"/>
       <c r="S245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T245" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V245" s="10">
         <v>40</v>
@@ -11985,21 +12003,21 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I247" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J247" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O247" s="4"/>
       <c r="T247" s="1"/>
       <c r="U247" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V247" s="10">
         <v>120</v>
@@ -12035,21 +12053,21 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I248" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J248" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O248" s="4"/>
       <c r="T248" s="1"/>
       <c r="U248" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V248" s="10">
         <v>120</v>
@@ -12085,21 +12103,21 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I249" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J249" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O249" s="4"/>
       <c r="T249" s="1"/>
       <c r="U249" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V249" s="10">
         <v>120</v>
@@ -12135,21 +12153,21 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I250" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J250" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O250" s="4"/>
       <c r="T250" s="1"/>
       <c r="U250" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V250" s="10">
         <v>120</v>
@@ -12197,10 +12215,10 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M252" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O252" s="4"/>
       <c r="T252" s="1"/>
@@ -12233,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="AE252" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG252" s="8">
         <v>1</v>
@@ -12241,10 +12259,10 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M253" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O253" s="4"/>
       <c r="T253" s="1"/>
@@ -12277,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="AE253" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG253" s="8">
         <v>2</v>
@@ -12285,10 +12303,10 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M254" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O254" s="4"/>
       <c r="T254" s="1"/>
@@ -12321,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="AE254" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG254" s="8">
         <v>3</v>
@@ -12329,10 +12347,10 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M255" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O255" s="4"/>
       <c r="T255" s="1"/>
@@ -12365,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="AE255" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG255" s="8">
         <v>4</v>
@@ -12373,19 +12391,19 @@
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I256" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J256" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M256" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O256" s="4"/>
       <c r="T256" s="1"/>
@@ -12418,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="AE256" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG256" s="8">
         <v>1</v>
@@ -12426,19 +12444,19 @@
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M257" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O257" s="4"/>
       <c r="T257" s="1"/>
@@ -12471,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="AE257" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG257" s="8">
         <v>2</v>
@@ -12479,19 +12497,19 @@
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I258" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J258" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M258" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O258" s="4"/>
       <c r="T258" s="1"/>
@@ -12524,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="AE258" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG258" s="8">
         <v>3</v>
@@ -12532,19 +12550,19 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O259" s="4"/>
       <c r="T259" s="1"/>
@@ -12577,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="AE259" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG259" s="8">
         <v>4</v>
@@ -12597,20 +12615,20 @@
     </row>
     <row r="261" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O261" s="4"/>
       <c r="S261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T261" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V261" s="10">
         <v>120</v>
@@ -12640,22 +12658,22 @@
         <v>1</v>
       </c>
       <c r="AE261" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O262" s="4"/>
       <c r="S262" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T262" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U262" s="5"/>
       <c r="V262" s="10">
@@ -12686,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="AE262" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.3">
@@ -12703,20 +12721,20 @@
     </row>
     <row r="264" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O264" s="4"/>
       <c r="S264" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T264" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V264" s="10">
         <v>160</v>
@@ -12746,22 +12764,22 @@
         <v>1</v>
       </c>
       <c r="AE264" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O265" s="4"/>
       <c r="S265" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T265" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U265" s="5"/>
       <c r="V265" s="10">
@@ -12792,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="AE265" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.3">
@@ -12809,23 +12827,23 @@
     </row>
     <row r="267" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O267" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T267" s="1"/>
       <c r="U267" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V267" s="11">
         <v>120</v>
@@ -12855,24 +12873,24 @@
         <v>1</v>
       </c>
       <c r="AE267" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O268" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T268" s="1"/>
       <c r="U268" s="5"/>
@@ -12904,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="AE268" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.3">
@@ -12921,20 +12939,20 @@
     </row>
     <row r="270" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O270" s="4"/>
       <c r="S270" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T270" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V270" s="11">
         <v>80</v>
@@ -12964,22 +12982,22 @@
         <v>1</v>
       </c>
       <c r="AE270" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O271" s="4"/>
       <c r="S271" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T271" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U271" s="5"/>
       <c r="V271" s="11">
@@ -13010,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="AE271" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.3">
@@ -13027,17 +13045,17 @@
     </row>
     <row r="273" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O273" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T273" s="1"/>
       <c r="U273" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V273" s="11">
         <v>80</v>
@@ -13067,18 +13085,18 @@
         <v>1</v>
       </c>
       <c r="AE273" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O274" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T274" s="1"/>
       <c r="U274" s="5"/>
@@ -13110,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="AE274" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.3">
@@ -13127,17 +13145,17 @@
     </row>
     <row r="276" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O276" s="4"/>
       <c r="S276" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T276" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V276" s="10">
         <v>100</v>
@@ -13167,19 +13185,19 @@
         <v>1</v>
       </c>
       <c r="AE276" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O277" s="4"/>
       <c r="S277" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T277" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U277" s="5"/>
       <c r="V277" s="10">
@@ -13210,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="AE277" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.3">
@@ -13227,20 +13245,20 @@
     </row>
     <row r="279" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I279" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O279" s="4"/>
       <c r="S279" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T279" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V279" s="10">
         <v>5</v>
@@ -13285,26 +13303,26 @@
     </row>
     <row r="281" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I281" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K281" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O281" s="4"/>
       <c r="S281" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T281" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V281" s="10">
         <v>15</v>
@@ -13349,20 +13367,20 @@
     </row>
     <row r="283" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J283" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O283" s="4"/>
       <c r="S283" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T283" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V283" s="10">
         <v>60</v>
@@ -13392,19 +13410,19 @@
         <v>1</v>
       </c>
       <c r="AE283" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O284" s="4"/>
       <c r="S284" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T284" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U284" s="4"/>
       <c r="V284" s="10">
@@ -13435,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="AE284" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -13458,534 +13476,534 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>323</v>
-      </c>
-      <c r="R1" t="s">
-        <v>324</v>
-      </c>
-      <c r="S1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -14013,91 +14031,91 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -14105,7 +14123,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
@@ -14113,7 +14131,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -14137,15 +14155,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -14156,7 +14174,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -14167,123 +14185,123 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B210FA-5309-4791-BB93-FA6D06DA30C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA64D8-FBAF-45CB-A959-E1C8CD8F86CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="402">
   <si>
     <t>Task</t>
   </si>
@@ -736,58 +736,13 @@
     <t>post S2C3T4</t>
   </si>
   <si>
-    <t>must be done by at least two people</t>
-  </si>
-  <si>
-    <t>must be done by a single person</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S2C1T1</t>
-  </si>
-  <si>
     <t>AdditionalReq</t>
   </si>
   <si>
-    <t>requires everyone assigned to S3C1T5</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S4C1T1</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S4C1T4</t>
-  </si>
-  <si>
     <t>requires everyone assigned to S1C2T1</t>
   </si>
   <si>
-    <t>must be done by people assigned to both S1C2T2A and S1C2T2B</t>
-  </si>
-  <si>
     <t>requires everyone assigned to S1C3T1</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S2C2T1</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S2C2T5</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S3C2T1</t>
-  </si>
-  <si>
-    <t>must be done by people assigned to both S1C1T1A and S1C1T1B</t>
-  </si>
-  <si>
-    <t>requires everyone assigned to S4C2T3</t>
-  </si>
-  <si>
-    <t>must be done by people assigned to both S1C3T2A and S1C3T2B</t>
-  </si>
-  <si>
-    <t>must be done by people assigned to both S1C3T5A and S1C3T5B</t>
-  </si>
-  <si>
-    <t>must be done by people assigned to both S2C3T2A and S2C3T2B</t>
   </si>
   <si>
     <t>in sprint 1</t>
@@ -1292,6 +1247,21 @@
   </si>
   <si>
     <t>People.3</t>
+  </si>
+  <si>
+    <t>S1C1T1A, S1C1T1B</t>
+  </si>
+  <si>
+    <t>S1C2T2A, S1C2T2B</t>
+  </si>
+  <si>
+    <t>S1C3T2A, S1C3T2B</t>
+  </si>
+  <si>
+    <t>S1C3T5A, S1C3T5B</t>
+  </si>
+  <si>
+    <t>S2C3T2A, S2C3T2B</t>
   </si>
 </sst>
 </file>
@@ -1704,61 +1674,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>88</v>
@@ -2766,7 +2736,7 @@
         <v>23</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -3384,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -3505,10 +3475,10 @@
   <dimension ref="A1:AG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="AB192" sqref="AB192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3532,100 +3502,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3737,7 +3707,7 @@
         <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="V5" s="7">
         <v>3</v>
@@ -3757,9 +3727,15 @@
       <c r="AA5" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>1</v>
+      </c>
       <c r="AG5" s="8">
         <v>1</v>
       </c>
@@ -3854,9 +3830,15 @@
       <c r="AA8" s="7">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="AB8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
       <c r="AG8" s="8">
         <v>1</v>
       </c>
@@ -3951,7 +3933,9 @@
       <c r="AA11" s="7">
         <v>1</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AG11" s="8">
@@ -4042,8 +4026,12 @@
       <c r="AA14" s="7">
         <v>1.5</v>
       </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>1</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AG14" s="8">
         <v>1</v>
@@ -4103,9 +4091,7 @@
       <c r="T16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U16" s="4"/>
       <c r="V16" s="7">
         <v>2</v>
       </c>
@@ -4148,9 +4134,7 @@
       <c r="T17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U17" s="4"/>
       <c r="V17" s="7">
         <v>2</v>
       </c>
@@ -4213,7 +4197,7 @@
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="4" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="V19" s="7">
         <v>6</v>
@@ -4259,7 +4243,7 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="4" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="V20" s="7">
         <v>4</v>
@@ -4794,9 +4778,7 @@
       <c r="T36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U36" s="4"/>
       <c r="V36" s="7">
         <v>2</v>
       </c>
@@ -4839,9 +4821,7 @@
       <c r="T37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U37" s="4"/>
       <c r="V37" s="7">
         <v>2</v>
       </c>
@@ -5319,7 +5299,9 @@
       <c r="AA52" s="7">
         <v>0</v>
       </c>
-      <c r="AB52" s="7"/>
+      <c r="AB52" s="7">
+        <v>1</v>
+      </c>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AG52" s="8">
@@ -5441,7 +5423,7 @@
         <v>18</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="V56" s="7">
         <v>30</v>
@@ -5502,9 +5484,7 @@
       <c r="T58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U58" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U58" s="4"/>
       <c r="V58" s="7">
         <v>2</v>
       </c>
@@ -5547,9 +5527,7 @@
       <c r="T59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U59" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U59" s="4"/>
       <c r="V59" s="7">
         <v>2</v>
       </c>
@@ -5608,7 +5586,7 @@
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="4" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="V61" s="7">
         <v>5</v>
@@ -5654,7 +5632,7 @@
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="4" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="V62" s="7">
         <v>5</v>
@@ -5963,7 +5941,7 @@
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="4" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="V72" s="7">
         <v>20</v>
@@ -6127,9 +6105,7 @@
       <c r="T77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U77" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U77" s="4"/>
       <c r="V77" s="7">
         <v>2</v>
       </c>
@@ -6172,9 +6148,7 @@
       <c r="T78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U78" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U78" s="4"/>
       <c r="V78" s="7">
         <v>2</v>
       </c>
@@ -6231,9 +6205,7 @@
       <c r="T80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U80" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="U80" s="4"/>
       <c r="V80" s="7">
         <v>4</v>
       </c>
@@ -6275,7 +6247,7 @@
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="4" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="V81" s="7">
         <v>7</v>
@@ -6295,7 +6267,9 @@
       <c r="AA81" s="7">
         <v>2</v>
       </c>
-      <c r="AB81" s="7"/>
+      <c r="AB81" s="7">
+        <v>1</v>
+      </c>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
       <c r="AG81" s="8">
@@ -6428,7 +6402,7 @@
         <v>18</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="V86" s="7">
         <v>6</v>
@@ -6636,7 +6610,9 @@
       <c r="AA92" s="7">
         <v>0</v>
       </c>
-      <c r="AB92" s="7"/>
+      <c r="AB92" s="7">
+        <v>1</v>
+      </c>
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
       <c r="AG92" s="8">
@@ -6817,9 +6793,7 @@
       <c r="T98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U98" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U98" s="4"/>
       <c r="V98" s="7">
         <v>2</v>
       </c>
@@ -6862,9 +6836,7 @@
       <c r="T99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U99" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U99" s="4"/>
       <c r="V99" s="7">
         <v>1</v>
       </c>
@@ -6958,7 +6930,7 @@
       </c>
       <c r="T102" s="1"/>
       <c r="U102" s="4" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="V102" s="7">
         <v>7</v>
@@ -6978,7 +6950,9 @@
       <c r="AA102" s="7">
         <v>2</v>
       </c>
-      <c r="AB102" s="7"/>
+      <c r="AB102" s="7">
+        <v>1</v>
+      </c>
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
       <c r="AG102" s="8">
@@ -7032,7 +7006,9 @@
       <c r="AA104" s="7">
         <v>1</v>
       </c>
-      <c r="AB104" s="7"/>
+      <c r="AB104" s="7">
+        <v>1</v>
+      </c>
       <c r="AC104" s="7"/>
       <c r="AD104" s="7"/>
       <c r="AG104" s="8">
@@ -7317,7 +7293,9 @@
       <c r="AA113" s="7">
         <v>0</v>
       </c>
-      <c r="AB113" s="7"/>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
       <c r="AG113" s="8">
@@ -7396,7 +7374,7 @@
         <v>18</v>
       </c>
       <c r="U116" s="4" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="V116" s="7">
         <v>12</v>
@@ -7416,7 +7394,9 @@
       <c r="AA116" s="7">
         <v>3</v>
       </c>
-      <c r="AB116" s="7"/>
+      <c r="AB116" s="7">
+        <v>1</v>
+      </c>
       <c r="AC116" s="7"/>
       <c r="AD116" s="7"/>
       <c r="AG116" s="8">
@@ -7435,7 +7415,7 @@
         <v>18</v>
       </c>
       <c r="U117" s="4" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="V117" s="7">
         <v>8</v>
@@ -7455,7 +7435,9 @@
       <c r="AA117" s="7">
         <v>2</v>
       </c>
-      <c r="AB117" s="7"/>
+      <c r="AB117" s="7">
+        <v>1</v>
+      </c>
       <c r="AC117" s="7"/>
       <c r="AD117" s="7"/>
       <c r="AG117" s="8">
@@ -7490,9 +7472,7 @@
       <c r="T119" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U119" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U119" s="4"/>
       <c r="V119" s="7">
         <v>2</v>
       </c>
@@ -7535,9 +7515,7 @@
       <c r="T120" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U120" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U120" s="4"/>
       <c r="V120" s="7">
         <v>1</v>
       </c>
@@ -7595,7 +7573,7 @@
         <v>18</v>
       </c>
       <c r="U122" s="4" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="V122" s="7">
         <v>12</v>
@@ -7638,7 +7616,7 @@
       </c>
       <c r="T123" s="1"/>
       <c r="U123" s="4" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="V123" s="7">
         <v>25</v>
@@ -7913,9 +7891,7 @@
       <c r="T132" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U132" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U132" s="4"/>
       <c r="V132" s="7">
         <v>2</v>
       </c>
@@ -7958,9 +7934,7 @@
       <c r="T133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U133" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U133" s="4"/>
       <c r="V133" s="7">
         <v>1</v>
       </c>
@@ -8036,7 +8010,9 @@
       <c r="AA135" s="7">
         <v>1</v>
       </c>
-      <c r="AB135" s="7"/>
+      <c r="AB135" s="7">
+        <v>1</v>
+      </c>
       <c r="AC135" s="7"/>
       <c r="AD135" s="7"/>
       <c r="AG135" s="8">
@@ -8053,7 +8029,7 @@
       </c>
       <c r="T136" s="1"/>
       <c r="U136" s="4" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="V136" s="7">
         <v>35</v>
@@ -8226,7 +8202,7 @@
         <v>18</v>
       </c>
       <c r="U142" s="4" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="V142" s="7">
         <v>12</v>
@@ -8246,7 +8222,9 @@
       <c r="AA142" s="7">
         <v>2</v>
       </c>
-      <c r="AB142" s="7"/>
+      <c r="AB142" s="7">
+        <v>1</v>
+      </c>
       <c r="AC142" s="7"/>
       <c r="AD142" s="7"/>
       <c r="AG142" s="8">
@@ -8265,7 +8243,7 @@
         <v>18</v>
       </c>
       <c r="U143" s="4" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="V143" s="7">
         <v>4</v>
@@ -8285,7 +8263,9 @@
       <c r="AA143" s="7">
         <v>1</v>
       </c>
-      <c r="AB143" s="7"/>
+      <c r="AB143" s="7">
+        <v>1</v>
+      </c>
       <c r="AC143" s="7"/>
       <c r="AD143" s="7"/>
       <c r="AG143" s="8">
@@ -8431,9 +8411,7 @@
       <c r="T149" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U149" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U149" s="4"/>
       <c r="V149" s="7">
         <v>2</v>
       </c>
@@ -8476,9 +8454,7 @@
       <c r="T150" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U150" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="U150" s="4"/>
       <c r="V150" s="7">
         <v>1</v>
       </c>
@@ -8577,7 +8553,7 @@
       </c>
       <c r="T153" s="1"/>
       <c r="U153" s="4" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="V153" s="7">
         <v>22</v>
@@ -8750,7 +8726,7 @@
         <v>18</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>248</v>
+        <v>399</v>
       </c>
       <c r="V159" s="7">
         <v>4</v>
@@ -8770,7 +8746,9 @@
       <c r="AA159" s="7">
         <v>1</v>
       </c>
-      <c r="AB159" s="7"/>
+      <c r="AB159" s="7">
+        <v>1</v>
+      </c>
       <c r="AC159" s="7"/>
       <c r="AD159" s="7"/>
       <c r="AG159" s="8">
@@ -9158,7 +9136,7 @@
         <v>18</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="V171" s="7">
         <v>4</v>
@@ -9301,7 +9279,7 @@
       </c>
       <c r="T175" s="1"/>
       <c r="U175" s="4" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="V175" s="7">
         <v>25</v>
@@ -9474,7 +9452,7 @@
         <v>18</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="V181" s="7">
         <v>2</v>
@@ -9751,7 +9729,9 @@
       <c r="AA189" s="7">
         <v>0</v>
       </c>
-      <c r="AB189" s="7"/>
+      <c r="AB189" s="7">
+        <v>1</v>
+      </c>
       <c r="AC189" s="7"/>
       <c r="AD189" s="7"/>
       <c r="AG189" s="8">
@@ -9774,7 +9754,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="K191" t="s">
         <v>18</v>
@@ -9787,7 +9767,7 @@
         <v>18</v>
       </c>
       <c r="U191" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V191" s="7">
         <v>10</v>
@@ -9823,7 +9803,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="K192" t="s">
         <v>18</v>
@@ -9836,7 +9816,7 @@
         <v>18</v>
       </c>
       <c r="U192" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V192" s="7">
         <v>30</v>
@@ -9872,7 +9852,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="K193" t="s">
         <v>18</v>
@@ -9885,7 +9865,7 @@
         <v>18</v>
       </c>
       <c r="U193" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V193" s="7">
         <v>15</v>
@@ -9921,7 +9901,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K194" t="s">
         <v>18</v>
@@ -9934,7 +9914,7 @@
         <v>18</v>
       </c>
       <c r="U194" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V194" s="7">
         <v>0</v>
@@ -9970,7 +9950,7 @@
     </row>
     <row r="195" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="K195" t="s">
         <v>18</v>
@@ -9978,7 +9958,7 @@
       <c r="O195" s="4"/>
       <c r="T195" s="1"/>
       <c r="U195" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V195" s="7">
         <v>10</v>
@@ -10008,7 +9988,7 @@
     </row>
     <row r="196" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K196" t="s">
         <v>18</v>
@@ -10016,7 +9996,7 @@
       <c r="O196" s="4"/>
       <c r="T196" s="1"/>
       <c r="U196" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V196" s="7">
         <v>10</v>
@@ -10046,7 +10026,7 @@
     </row>
     <row r="197" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K197" t="s">
         <v>18</v>
@@ -10054,7 +10034,7 @@
       <c r="O197" s="4"/>
       <c r="T197" s="1"/>
       <c r="U197" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V197" s="7">
         <v>10</v>
@@ -10084,7 +10064,7 @@
     </row>
     <row r="198" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="K198" t="s">
         <v>18</v>
@@ -10092,7 +10072,7 @@
       <c r="O198" s="4"/>
       <c r="T198" s="1"/>
       <c r="U198" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V198" s="7">
         <v>10</v>
@@ -10122,7 +10102,7 @@
     </row>
     <row r="199" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K199" t="s">
         <v>18</v>
@@ -10133,7 +10113,7 @@
       <c r="O199" s="4"/>
       <c r="T199" s="1"/>
       <c r="U199" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V199" s="7">
         <v>6</v>
@@ -10163,7 +10143,7 @@
     </row>
     <row r="200" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -10174,7 +10154,7 @@
       <c r="O200" s="4"/>
       <c r="T200" s="1"/>
       <c r="U200" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V200" s="7">
         <v>6</v>
@@ -10204,7 +10184,7 @@
     </row>
     <row r="201" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="K201" t="s">
         <v>18</v>
@@ -10215,7 +10195,7 @@
       <c r="O201" s="4"/>
       <c r="T201" s="1"/>
       <c r="U201" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V201" s="7">
         <v>6</v>
@@ -10245,7 +10225,7 @@
     </row>
     <row r="202" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -10256,7 +10236,7 @@
       <c r="O202" s="4"/>
       <c r="T202" s="1"/>
       <c r="U202" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="V202" s="7">
         <v>6</v>
@@ -10299,7 +10279,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -10315,7 +10295,7 @@
         <v>18</v>
       </c>
       <c r="U204" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V204" s="10">
         <v>3</v>
@@ -10336,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="AE204" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="AG204" s="7" t="s">
         <v>24</v>
@@ -10344,7 +10324,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10360,7 +10340,7 @@
         <v>18</v>
       </c>
       <c r="U205" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V205" s="10">
         <v>75</v>
@@ -10381,7 +10361,7 @@
         <v>25</v>
       </c>
       <c r="AE205" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AG205" s="7" t="s">
         <v>23</v>
@@ -10389,7 +10369,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
@@ -10405,7 +10385,7 @@
         <v>18</v>
       </c>
       <c r="U206" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V206" s="10">
         <v>30</v>
@@ -10426,7 +10406,7 @@
         <v>10</v>
       </c>
       <c r="AE206" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AG206" s="7" t="s">
         <v>25</v>
@@ -10434,7 +10414,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
@@ -10450,7 +10430,7 @@
         <v>18</v>
       </c>
       <c r="U207" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V207" s="10">
         <v>0</v>
@@ -10471,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AE207" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="AG207" s="8">
         <v>4</v>
@@ -10479,7 +10459,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
@@ -10487,7 +10467,7 @@
       <c r="O208" s="4"/>
       <c r="T208" s="1"/>
       <c r="U208" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="V208" s="7">
         <v>1.5</v>
@@ -10526,7 +10506,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
@@ -10534,7 +10514,7 @@
       <c r="O209" s="4"/>
       <c r="T209" s="1"/>
       <c r="U209" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="V209" s="7">
         <v>1.5</v>
@@ -10573,7 +10553,7 @@
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="K210" t="s">
         <v>18</v>
@@ -10581,7 +10561,7 @@
       <c r="O210" s="4"/>
       <c r="T210" s="1"/>
       <c r="U210" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="V210" s="7">
         <v>1.5</v>
@@ -10620,7 +10600,7 @@
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="K211" t="s">
         <v>18</v>
@@ -10628,7 +10608,7 @@
       <c r="O211" s="4"/>
       <c r="T211" s="1"/>
       <c r="U211" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="V211" s="7">
         <v>1.5</v>
@@ -10667,7 +10647,7 @@
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
@@ -10706,7 +10686,7 @@
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>18</v>
@@ -10745,7 +10725,7 @@
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>18</v>
@@ -10784,7 +10764,7 @@
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>18</v>
@@ -10823,7 +10803,7 @@
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>18</v>
@@ -10862,7 +10842,7 @@
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>18</v>
@@ -10901,7 +10881,7 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>18</v>
@@ -10940,7 +10920,7 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>18</v>
@@ -10979,7 +10959,7 @@
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>18</v>
@@ -11021,7 +11001,7 @@
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
@@ -11063,7 +11043,7 @@
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>18</v>
@@ -11105,7 +11085,7 @@
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>18</v>
@@ -11159,7 +11139,7 @@
     </row>
     <row r="225" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I225" t="s">
         <v>18</v>
@@ -11167,7 +11147,7 @@
       <c r="O225" s="4"/>
       <c r="T225" s="1"/>
       <c r="U225" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="V225" s="10">
         <v>25</v>
@@ -11203,7 +11183,7 @@
     </row>
     <row r="226" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I226" t="s">
         <v>18</v>
@@ -11211,7 +11191,7 @@
       <c r="O226" s="4"/>
       <c r="T226" s="1"/>
       <c r="U226" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="V226" s="10">
         <v>25</v>
@@ -11247,7 +11227,7 @@
     </row>
     <row r="227" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
@@ -11255,7 +11235,7 @@
       <c r="O227" s="4"/>
       <c r="T227" s="1"/>
       <c r="U227" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="V227" s="10">
         <v>20</v>
@@ -11291,7 +11271,7 @@
     </row>
     <row r="228" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I228" t="s">
         <v>18</v>
@@ -11299,7 +11279,7 @@
       <c r="O228" s="4"/>
       <c r="T228" s="1"/>
       <c r="U228" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="V228" s="10">
         <v>20</v>
@@ -11347,7 +11327,7 @@
     </row>
     <row r="230" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I230" t="s">
         <v>18</v>
@@ -11355,7 +11335,7 @@
       <c r="O230" s="4"/>
       <c r="T230" s="1"/>
       <c r="U230" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="V230" s="10">
         <v>40</v>
@@ -11391,7 +11371,7 @@
     </row>
     <row r="231" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I231" t="s">
         <v>18</v>
@@ -11399,7 +11379,7 @@
       <c r="O231" s="4"/>
       <c r="T231" s="1"/>
       <c r="U231" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="V231" s="10">
         <v>40</v>
@@ -11435,7 +11415,7 @@
     </row>
     <row r="232" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
@@ -11443,7 +11423,7 @@
       <c r="O232" s="4"/>
       <c r="T232" s="1"/>
       <c r="U232" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="V232" s="10">
         <v>40</v>
@@ -11479,7 +11459,7 @@
     </row>
     <row r="233" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>
@@ -11487,7 +11467,7 @@
       <c r="O233" s="4"/>
       <c r="T233" s="1"/>
       <c r="U233" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="V233" s="10">
         <v>40</v>
@@ -11535,7 +11515,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M235" t="s">
         <v>18</v>
@@ -11577,7 +11557,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="M236" t="s">
         <v>18</v>
@@ -11619,7 +11599,7 @@
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="M237" t="s">
         <v>18</v>
@@ -11661,7 +11641,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M238" t="s">
         <v>18</v>
@@ -11715,7 +11695,7 @@
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O240" s="4"/>
       <c r="Q240" t="s">
@@ -11726,25 +11706,25 @@
       </c>
       <c r="T240" s="1"/>
       <c r="U240" s="4" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="V240" s="10">
         <v>3</v>
       </c>
       <c r="W240" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="X240" s="10">
         <v>3</v>
       </c>
       <c r="Y240" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="Z240" s="10">
         <v>3</v>
       </c>
       <c r="AA240" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AB240" s="7" t="s">
         <v>110</v>
@@ -11771,7 +11751,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I242" t="s">
         <v>18</v>
@@ -11790,7 +11770,7 @@
         <v>18</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V242" s="10">
         <v>40</v>
@@ -11826,7 +11806,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="I243" t="s">
         <v>18</v>
@@ -11845,7 +11825,7 @@
         <v>18</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V243" s="10">
         <v>40</v>
@@ -11881,7 +11861,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I244" t="s">
         <v>18</v>
@@ -11900,7 +11880,7 @@
         <v>18</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V244" s="10">
         <v>40</v>
@@ -11936,7 +11916,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I245" t="s">
         <v>18</v>
@@ -11955,7 +11935,7 @@
         <v>18</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V245" s="10">
         <v>40</v>
@@ -12003,7 +11983,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>18</v>
@@ -12017,7 +11997,7 @@
       <c r="O247" s="4"/>
       <c r="T247" s="1"/>
       <c r="U247" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V247" s="10">
         <v>120</v>
@@ -12053,7 +12033,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>18</v>
@@ -12067,7 +12047,7 @@
       <c r="O248" s="4"/>
       <c r="T248" s="1"/>
       <c r="U248" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V248" s="10">
         <v>120</v>
@@ -12103,7 +12083,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>18</v>
@@ -12117,7 +12097,7 @@
       <c r="O249" s="4"/>
       <c r="T249" s="1"/>
       <c r="U249" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V249" s="10">
         <v>120</v>
@@ -12153,7 +12133,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>18</v>
@@ -12167,7 +12147,7 @@
       <c r="O250" s="4"/>
       <c r="T250" s="1"/>
       <c r="U250" s="4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="V250" s="10">
         <v>120</v>
@@ -12215,7 +12195,7 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="M252" t="s">
         <v>18</v>
@@ -12251,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="AE252" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AG252" s="8">
         <v>1</v>
@@ -12259,7 +12239,7 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M253" t="s">
         <v>18</v>
@@ -12295,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="AE253" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AG253" s="8">
         <v>2</v>
@@ -12303,7 +12283,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M254" t="s">
         <v>18</v>
@@ -12339,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="AE254" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AG254" s="8">
         <v>3</v>
@@ -12347,7 +12327,7 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M255" t="s">
         <v>18</v>
@@ -12383,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="AE255" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AG255" s="8">
         <v>4</v>
@@ -12391,7 +12371,7 @@
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>18</v>
@@ -12436,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="AE256" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AG256" s="8">
         <v>1</v>
@@ -12444,7 +12424,7 @@
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>18</v>
@@ -12489,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="AE257" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AG257" s="8">
         <v>2</v>
@@ -12497,7 +12477,7 @@
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>18</v>
@@ -12542,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="AE258" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AG258" s="8">
         <v>3</v>
@@ -12550,7 +12530,7 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>18</v>
@@ -12595,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="AE259" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AG259" s="8">
         <v>4</v>
@@ -12615,7 +12595,7 @@
     </row>
     <row r="261" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>18</v>
@@ -12628,7 +12608,7 @@
         <v>18</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="V261" s="10">
         <v>120</v>
@@ -12658,12 +12638,12 @@
         <v>1</v>
       </c>
       <c r="AE261" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>18</v>
@@ -12704,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="AE262" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.3">
@@ -12721,7 +12701,7 @@
     </row>
     <row r="264" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>18</v>
@@ -12734,7 +12714,7 @@
         <v>18</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="V264" s="10">
         <v>160</v>
@@ -12764,12 +12744,12 @@
         <v>1</v>
       </c>
       <c r="AE264" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>18</v>
@@ -12810,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="AE265" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.3">
@@ -12827,7 +12807,7 @@
     </row>
     <row r="267" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>18</v>
@@ -12843,7 +12823,7 @@
       </c>
       <c r="T267" s="1"/>
       <c r="U267" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="V267" s="11">
         <v>120</v>
@@ -12873,12 +12853,12 @@
         <v>1</v>
       </c>
       <c r="AE267" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>18</v>
@@ -12922,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="AE268" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.3">
@@ -12939,7 +12919,7 @@
     </row>
     <row r="270" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>18</v>
@@ -12952,7 +12932,7 @@
         <v>18</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="V270" s="11">
         <v>80</v>
@@ -12982,12 +12962,12 @@
         <v>1</v>
       </c>
       <c r="AE270" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>18</v>
@@ -13028,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="AE271" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.3">
@@ -13045,7 +13025,7 @@
     </row>
     <row r="273" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>18</v>
@@ -13055,7 +13035,7 @@
       </c>
       <c r="T273" s="1"/>
       <c r="U273" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="V273" s="11">
         <v>80</v>
@@ -13085,12 +13065,12 @@
         <v>1</v>
       </c>
       <c r="AE273" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>18</v>
@@ -13128,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="AE274" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.3">
@@ -13145,7 +13125,7 @@
     </row>
     <row r="276" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="O276" s="4"/>
       <c r="S276" t="s">
@@ -13155,7 +13135,7 @@
         <v>18</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="V276" s="10">
         <v>100</v>
@@ -13185,12 +13165,12 @@
         <v>1</v>
       </c>
       <c r="AE276" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="O277" s="4"/>
       <c r="S277" t="s">
@@ -13228,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="AE277" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.3">
@@ -13245,7 +13225,7 @@
     </row>
     <row r="279" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I279" t="s">
         <v>18</v>
@@ -13258,7 +13238,7 @@
         <v>18</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="V279" s="10">
         <v>5</v>
@@ -13303,7 +13283,7 @@
     </row>
     <row r="281" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>18</v>
@@ -13322,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="V281" s="10">
         <v>15</v>
@@ -13367,7 +13347,7 @@
     </row>
     <row r="283" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J283" t="s">
         <v>18</v>
@@ -13380,7 +13360,7 @@
         <v>18</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="V283" s="10">
         <v>60</v>
@@ -13410,12 +13390,12 @@
         <v>1</v>
       </c>
       <c r="AE283" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O284" s="4"/>
       <c r="S284" t="s">
@@ -13453,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="AE284" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -13518,19 +13498,19 @@
         <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="Q1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="R1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="S1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -13538,7 +13518,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -13564,7 +13544,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -13593,7 +13573,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13643,7 +13623,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -13675,7 +13655,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -13704,7 +13684,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -13740,12 +13720,12 @@
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -13780,7 +13760,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -13821,7 +13801,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -13859,7 +13839,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13897,7 +13877,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -13920,7 +13900,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -13959,12 +13939,12 @@
         <v>18</v>
       </c>
       <c r="T13" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -14155,15 +14135,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -14174,7 +14154,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -14185,123 +14165,123 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA64D8-FBAF-45CB-A959-E1C8CD8F86CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1FDDC-5565-43BA-8C66-8D12017E08F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1332,6 +1332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1650,10 +1651,10 @@
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3475,10 +3476,10 @@
   <dimension ref="A1:AG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB192" sqref="AB192"/>
+      <selection pane="bottomRight" activeCell="AF194" sqref="AF194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3727,13 +3728,13 @@
       <c r="AA5" s="7">
         <v>0.5</v>
       </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="7">
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
         <v>1</v>
       </c>
       <c r="AG5" s="8">
@@ -3793,9 +3794,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
       <c r="AG7" s="8">
         <v>1</v>
       </c>
@@ -3830,13 +3831,13 @@
       <c r="AA8" s="7">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="7">
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10">
         <v>1</v>
       </c>
       <c r="AG8" s="8">
@@ -3896,9 +3897,9 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
       <c r="AG10" s="8">
         <v>1</v>
       </c>
@@ -3933,11 +3934,11 @@
       <c r="AA11" s="7">
         <v>1</v>
       </c>
-      <c r="AB11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="AB11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
       <c r="AG11" s="8">
         <v>1</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="AC12" s="10">
         <v>2</v>
       </c>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="10"/>
       <c r="AG12" s="8">
         <v>1</v>
       </c>
@@ -3989,9 +3990,9 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
       <c r="AG13" s="8">
         <v>1</v>
       </c>
@@ -4026,13 +4027,13 @@
       <c r="AA14" s="7">
         <v>1.5</v>
       </c>
-      <c r="AB14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="7"/>
+      <c r="AB14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="10"/>
       <c r="AG14" s="8">
         <v>1</v>
       </c>
@@ -5299,7 +5300,7 @@
       <c r="AA52" s="7">
         <v>0</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AB52" s="10">
         <v>1</v>
       </c>
       <c r="AC52" s="7"/>
@@ -6267,7 +6268,7 @@
       <c r="AA81" s="7">
         <v>2</v>
       </c>
-      <c r="AB81" s="7">
+      <c r="AB81" s="10">
         <v>1</v>
       </c>
       <c r="AC81" s="7"/>
@@ -6610,7 +6611,7 @@
       <c r="AA92" s="7">
         <v>0</v>
       </c>
-      <c r="AB92" s="7">
+      <c r="AB92" s="10">
         <v>1</v>
       </c>
       <c r="AC92" s="7"/>
@@ -6672,7 +6673,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
+      <c r="AB94" s="10"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
       <c r="AG94" s="8">
@@ -6775,7 +6776,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
       <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
+      <c r="AB97" s="10"/>
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
       <c r="AG97" s="8">
@@ -6878,7 +6879,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
+      <c r="AB100" s="10"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
     </row>
@@ -6950,7 +6951,7 @@
       <c r="AA102" s="7">
         <v>2</v>
       </c>
-      <c r="AB102" s="7">
+      <c r="AB102" s="10">
         <v>1</v>
       </c>
       <c r="AC102" s="7"/>
@@ -6969,7 +6970,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
+      <c r="AB103" s="10"/>
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
       <c r="AG103" s="8">
@@ -7006,7 +7007,7 @@
       <c r="AA104" s="7">
         <v>1</v>
       </c>
-      <c r="AB104" s="7">
+      <c r="AB104" s="10">
         <v>1</v>
       </c>
       <c r="AC104" s="7"/>
@@ -7062,7 +7063,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
       <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
+      <c r="AB106" s="10"/>
       <c r="AC106" s="7"/>
       <c r="AD106" s="7"/>
       <c r="AG106" s="8">
@@ -7293,7 +7294,7 @@
       <c r="AA113" s="7">
         <v>0</v>
       </c>
-      <c r="AB113" s="7">
+      <c r="AB113" s="10">
         <v>1</v>
       </c>
       <c r="AC113" s="7"/>
@@ -7355,7 +7356,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
       <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
+      <c r="AB115" s="10"/>
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
       <c r="AG115" s="8">
@@ -7394,7 +7395,7 @@
       <c r="AA116" s="7">
         <v>3</v>
       </c>
-      <c r="AB116" s="7">
+      <c r="AB116" s="10">
         <v>1</v>
       </c>
       <c r="AC116" s="7"/>
@@ -7435,7 +7436,7 @@
       <c r="AA117" s="7">
         <v>2</v>
       </c>
-      <c r="AB117" s="7">
+      <c r="AB117" s="10">
         <v>1</v>
       </c>
       <c r="AC117" s="7"/>
@@ -8010,7 +8011,7 @@
       <c r="AA135" s="7">
         <v>1</v>
       </c>
-      <c r="AB135" s="7">
+      <c r="AB135" s="10">
         <v>1</v>
       </c>
       <c r="AC135" s="7"/>
@@ -8066,7 +8067,7 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
       <c r="AA137" s="7"/>
-      <c r="AB137" s="7"/>
+      <c r="AB137" s="10"/>
       <c r="AC137" s="7"/>
       <c r="AD137" s="7"/>
     </row>
@@ -8080,7 +8081,7 @@
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="7"/>
-      <c r="AB138" s="7"/>
+      <c r="AB138" s="10"/>
       <c r="AC138" s="7"/>
       <c r="AD138" s="7"/>
       <c r="AG138" s="8">
@@ -8183,7 +8184,7 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="7"/>
-      <c r="AB141" s="7"/>
+      <c r="AB141" s="10"/>
       <c r="AC141" s="7"/>
       <c r="AD141" s="7"/>
       <c r="AG141" s="8">
@@ -8222,7 +8223,7 @@
       <c r="AA142" s="7">
         <v>2</v>
       </c>
-      <c r="AB142" s="7">
+      <c r="AB142" s="10">
         <v>1</v>
       </c>
       <c r="AC142" s="7"/>
@@ -8263,7 +8264,7 @@
       <c r="AA143" s="7">
         <v>1</v>
       </c>
-      <c r="AB143" s="7">
+      <c r="AB143" s="10">
         <v>1</v>
       </c>
       <c r="AC143" s="7"/>
@@ -8282,7 +8283,7 @@
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
       <c r="AA144" s="7"/>
-      <c r="AB144" s="7"/>
+      <c r="AB144" s="10"/>
       <c r="AC144" s="7"/>
       <c r="AD144" s="7"/>
       <c r="AG144" s="8">
@@ -8746,7 +8747,7 @@
       <c r="AA159" s="7">
         <v>1</v>
       </c>
-      <c r="AB159" s="7">
+      <c r="AB159" s="10">
         <v>1</v>
       </c>
       <c r="AC159" s="7"/>
@@ -8808,7 +8809,7 @@
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
       <c r="AA161" s="7"/>
-      <c r="AB161" s="7"/>
+      <c r="AB161" s="10"/>
       <c r="AC161" s="7"/>
       <c r="AD161" s="7"/>
       <c r="AG161" s="8">
@@ -9729,11 +9730,11 @@
       <c r="AA189" s="7">
         <v>0</v>
       </c>
-      <c r="AB189" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC189" s="7"/>
-      <c r="AD189" s="7"/>
+      <c r="AB189" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="10"/>
+      <c r="AD189" s="10"/>
       <c r="AG189" s="8">
         <v>2</v>
       </c>
@@ -9748,9 +9749,9 @@
       <c r="Y190" s="7"/>
       <c r="Z190" s="7"/>
       <c r="AA190" s="7"/>
-      <c r="AB190" s="7"/>
-      <c r="AC190" s="7"/>
-      <c r="AD190" s="7"/>
+      <c r="AB190" s="10"/>
+      <c r="AC190" s="10"/>
+      <c r="AD190" s="10"/>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
@@ -9787,13 +9788,13 @@
       <c r="AA191" s="10">
         <v>3</v>
       </c>
-      <c r="AB191" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC191" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD191" s="8">
+      <c r="AB191" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC191" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD191" s="12">
         <v>1</v>
       </c>
       <c r="AE191" s="7"/>
@@ -9836,13 +9837,13 @@
       <c r="AA192" s="10">
         <v>9</v>
       </c>
-      <c r="AB192" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC192" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD192" s="8">
+      <c r="AB192" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC192" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD192" s="12">
         <v>1</v>
       </c>
       <c r="AE192" s="7"/>
@@ -9885,13 +9886,13 @@
       <c r="AA193" s="10">
         <v>4.5</v>
       </c>
-      <c r="AB193" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC193" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD193" s="8">
+      <c r="AB193" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD193" s="12">
         <v>1</v>
       </c>
       <c r="AE193" s="7"/>
@@ -9934,13 +9935,13 @@
       <c r="AA194" s="10">
         <v>0</v>
       </c>
-      <c r="AB194" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC194" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD194" s="8">
+      <c r="AB194" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC194" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD194" s="12">
         <v>1</v>
       </c>
       <c r="AE194" s="7"/>

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1FDDC-5565-43BA-8C66-8D12017E08F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A51F7-83E0-43AE-BCBE-77E4BE29BE7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="374">
   <si>
     <t>Task</t>
   </si>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>must be done every sprint; must be done by the same person every sprint</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>must be assigned every sprint to the same people;
@@ -984,118 +981,10 @@
     <t>fri</t>
   </si>
   <si>
-    <t>prep check-up 1</t>
-  </si>
-  <si>
-    <t>prep check-up 2</t>
-  </si>
-  <si>
-    <t>prep check-up 3</t>
-  </si>
-  <si>
-    <t>prep check-up 4</t>
-  </si>
-  <si>
-    <t>prep troubleshooting 1</t>
-  </si>
-  <si>
-    <t>prep troubleshooting 2</t>
-  </si>
-  <si>
-    <t>prep troubleshooting 3</t>
-  </si>
-  <si>
-    <t>prep troubleshooting 4</t>
-  </si>
-  <si>
     <t>aantal keer</t>
   </si>
   <si>
     <t>can only be done whenever prep troubleshooting during sprint is completed</t>
-  </si>
-  <si>
-    <t>troubleshooting 1</t>
-  </si>
-  <si>
-    <t>troubleshooting 2</t>
-  </si>
-  <si>
-    <t>troubleshooting 3</t>
-  </si>
-  <si>
-    <t>troubleshooting 4</t>
-  </si>
-  <si>
-    <t>OSHA committee 1</t>
-  </si>
-  <si>
-    <t>OSHA committee 2</t>
-  </si>
-  <si>
-    <t>OSHA committee 3</t>
-  </si>
-  <si>
-    <t>OSHA committee 4</t>
-  </si>
-  <si>
-    <t>legal assistant 1</t>
-  </si>
-  <si>
-    <t>legal assistant 2</t>
-  </si>
-  <si>
-    <t>legal assistant 3</t>
-  </si>
-  <si>
-    <t>legal assistant 4</t>
-  </si>
-  <si>
-    <t>PR 1</t>
-  </si>
-  <si>
-    <t>PR 2</t>
-  </si>
-  <si>
-    <t>PR 3</t>
-  </si>
-  <si>
-    <t>PR 4</t>
-  </si>
-  <si>
-    <t>scientific advisor 1</t>
-  </si>
-  <si>
-    <t>scientific advisor 2</t>
-  </si>
-  <si>
-    <t>scientific advisor 3</t>
-  </si>
-  <si>
-    <t>scientific advisor 4</t>
-  </si>
-  <si>
-    <t>crew director 1</t>
-  </si>
-  <si>
-    <t>crew director 2</t>
-  </si>
-  <si>
-    <t>crew director 3</t>
-  </si>
-  <si>
-    <t>crew director 4</t>
-  </si>
-  <si>
-    <t>meetup with stakeholders 1</t>
-  </si>
-  <si>
-    <t>meetup with stakeholders 2</t>
-  </si>
-  <si>
-    <t>meetup with stakeholders 3</t>
-  </si>
-  <si>
-    <t>meetup with stakeholders 4</t>
   </si>
   <si>
     <t>ReqSkill 1</t>
@@ -1262,6 +1151,33 @@
   </si>
   <si>
     <t>S2C3T2A, S2C3T2B</t>
+  </si>
+  <si>
+    <t>OSHA committee</t>
+  </si>
+  <si>
+    <t>legal assistant</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>scientific advisor</t>
+  </si>
+  <si>
+    <t>crew director</t>
+  </si>
+  <si>
+    <t>meetup with stakeholders</t>
+  </si>
+  <si>
+    <t>prep check-up</t>
+  </si>
+  <si>
+    <t>prep troubleshooting</t>
+  </si>
+  <si>
+    <t>troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -1675,61 +1591,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>88</v>
@@ -3476,10 +3392,10 @@
   <dimension ref="A1:AG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF194" sqref="AF194"/>
+      <selection pane="bottomRight" activeCell="AA240" sqref="AA240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3503,100 +3419,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>233</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3708,7 +3624,7 @@
         <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="V5" s="7">
         <v>3</v>
@@ -6403,7 +6319,7 @@
         <v>18</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="V86" s="7">
         <v>6</v>
@@ -8727,7 +8643,7 @@
         <v>18</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="V159" s="7">
         <v>4</v>
@@ -9137,7 +9053,7 @@
         <v>18</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="V171" s="7">
         <v>4</v>
@@ -9453,7 +9369,7 @@
         <v>18</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="V181" s="7">
         <v>2</v>
@@ -9755,7 +9671,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="K191" t="s">
         <v>18</v>
@@ -9804,7 +9720,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="K192" t="s">
         <v>18</v>
@@ -9853,7 +9769,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="K193" t="s">
         <v>18</v>
@@ -9902,7 +9818,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="K194" t="s">
         <v>18</v>
@@ -9951,7 +9867,7 @@
     </row>
     <row r="195" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="K195" t="s">
         <v>18</v>
@@ -9959,7 +9875,7 @@
       <c r="O195" s="4"/>
       <c r="T195" s="1"/>
       <c r="U195" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V195" s="7">
         <v>10</v>
@@ -9989,7 +9905,7 @@
     </row>
     <row r="196" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="K196" t="s">
         <v>18</v>
@@ -9997,7 +9913,7 @@
       <c r="O196" s="4"/>
       <c r="T196" s="1"/>
       <c r="U196" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V196" s="7">
         <v>10</v>
@@ -10027,7 +9943,7 @@
     </row>
     <row r="197" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="K197" t="s">
         <v>18</v>
@@ -10035,7 +9951,7 @@
       <c r="O197" s="4"/>
       <c r="T197" s="1"/>
       <c r="U197" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V197" s="7">
         <v>10</v>
@@ -10065,7 +9981,7 @@
     </row>
     <row r="198" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="K198" t="s">
         <v>18</v>
@@ -10073,7 +9989,7 @@
       <c r="O198" s="4"/>
       <c r="T198" s="1"/>
       <c r="U198" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V198" s="7">
         <v>10</v>
@@ -10103,7 +10019,7 @@
     </row>
     <row r="199" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="K199" t="s">
         <v>18</v>
@@ -10114,7 +10030,7 @@
       <c r="O199" s="4"/>
       <c r="T199" s="1"/>
       <c r="U199" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V199" s="7">
         <v>6</v>
@@ -10144,7 +10060,7 @@
     </row>
     <row r="200" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -10155,7 +10071,7 @@
       <c r="O200" s="4"/>
       <c r="T200" s="1"/>
       <c r="U200" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V200" s="7">
         <v>6</v>
@@ -10185,7 +10101,7 @@
     </row>
     <row r="201" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="K201" t="s">
         <v>18</v>
@@ -10196,7 +10112,7 @@
       <c r="O201" s="4"/>
       <c r="T201" s="1"/>
       <c r="U201" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V201" s="7">
         <v>6</v>
@@ -10226,7 +10142,7 @@
     </row>
     <row r="202" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -10237,7 +10153,7 @@
       <c r="O202" s="4"/>
       <c r="T202" s="1"/>
       <c r="U202" s="5" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="V202" s="7">
         <v>6</v>
@@ -10280,7 +10196,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -10325,7 +10241,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10370,7 +10286,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
@@ -10415,7 +10331,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
@@ -10460,7 +10376,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
@@ -10468,7 +10384,7 @@
       <c r="O208" s="4"/>
       <c r="T208" s="1"/>
       <c r="U208" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="V208" s="7">
         <v>1.5</v>
@@ -10507,7 +10423,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
@@ -10515,7 +10431,7 @@
       <c r="O209" s="4"/>
       <c r="T209" s="1"/>
       <c r="U209" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="V209" s="7">
         <v>1.5</v>
@@ -10554,7 +10470,7 @@
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="K210" t="s">
         <v>18</v>
@@ -10562,7 +10478,7 @@
       <c r="O210" s="4"/>
       <c r="T210" s="1"/>
       <c r="U210" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="V210" s="7">
         <v>1.5</v>
@@ -10601,7 +10517,7 @@
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="K211" t="s">
         <v>18</v>
@@ -10609,7 +10525,7 @@
       <c r="O211" s="4"/>
       <c r="T211" s="1"/>
       <c r="U211" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="V211" s="7">
         <v>1.5</v>
@@ -10648,7 +10564,7 @@
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
@@ -10687,7 +10603,7 @@
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>18</v>
@@ -10726,7 +10642,7 @@
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>18</v>
@@ -10765,7 +10681,7 @@
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>18</v>
@@ -10804,7 +10720,7 @@
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>18</v>
@@ -10843,7 +10759,7 @@
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>18</v>
@@ -10882,7 +10798,7 @@
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>18</v>
@@ -10921,7 +10837,7 @@
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>18</v>
@@ -10960,7 +10876,7 @@
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>18</v>
@@ -11002,7 +10918,7 @@
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
@@ -11044,7 +10960,7 @@
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>18</v>
@@ -11086,7 +11002,7 @@
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>18</v>
@@ -11140,7 +11056,7 @@
     </row>
     <row r="225" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="I225" t="s">
         <v>18</v>
@@ -11148,7 +11064,7 @@
       <c r="O225" s="4"/>
       <c r="T225" s="1"/>
       <c r="U225" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V225" s="10">
         <v>25</v>
@@ -11184,7 +11100,7 @@
     </row>
     <row r="226" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="I226" t="s">
         <v>18</v>
@@ -11192,7 +11108,7 @@
       <c r="O226" s="4"/>
       <c r="T226" s="1"/>
       <c r="U226" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V226" s="10">
         <v>25</v>
@@ -11228,7 +11144,7 @@
     </row>
     <row r="227" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
@@ -11236,7 +11152,7 @@
       <c r="O227" s="4"/>
       <c r="T227" s="1"/>
       <c r="U227" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V227" s="10">
         <v>20</v>
@@ -11272,7 +11188,7 @@
     </row>
     <row r="228" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="I228" t="s">
         <v>18</v>
@@ -11280,7 +11196,7 @@
       <c r="O228" s="4"/>
       <c r="T228" s="1"/>
       <c r="U228" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V228" s="10">
         <v>20</v>
@@ -11328,7 +11244,7 @@
     </row>
     <row r="230" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="I230" t="s">
         <v>18</v>
@@ -11336,7 +11252,7 @@
       <c r="O230" s="4"/>
       <c r="T230" s="1"/>
       <c r="U230" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V230" s="10">
         <v>40</v>
@@ -11372,7 +11288,7 @@
     </row>
     <row r="231" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="I231" t="s">
         <v>18</v>
@@ -11380,7 +11296,7 @@
       <c r="O231" s="4"/>
       <c r="T231" s="1"/>
       <c r="U231" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V231" s="10">
         <v>40</v>
@@ -11416,7 +11332,7 @@
     </row>
     <row r="232" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
@@ -11424,7 +11340,7 @@
       <c r="O232" s="4"/>
       <c r="T232" s="1"/>
       <c r="U232" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V232" s="10">
         <v>40</v>
@@ -11460,7 +11376,7 @@
     </row>
     <row r="233" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>
@@ -11468,7 +11384,7 @@
       <c r="O233" s="4"/>
       <c r="T233" s="1"/>
       <c r="U233" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V233" s="10">
         <v>40</v>
@@ -11516,7 +11432,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M235" t="s">
         <v>18</v>
@@ -11558,7 +11474,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M236" t="s">
         <v>18</v>
@@ -11600,7 +11516,7 @@
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M237" t="s">
         <v>18</v>
@@ -11642,7 +11558,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M238" t="s">
         <v>18</v>
@@ -11696,7 +11612,7 @@
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O240" s="4"/>
       <c r="Q240" t="s">
@@ -11707,25 +11623,25 @@
       </c>
       <c r="T240" s="1"/>
       <c r="U240" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V240" s="10">
         <v>3</v>
       </c>
-      <c r="W240" s="7" t="s">
-        <v>241</v>
+      <c r="W240" s="7">
+        <v>0.5</v>
       </c>
       <c r="X240" s="10">
         <v>3</v>
       </c>
-      <c r="Y240" s="7" t="s">
-        <v>241</v>
+      <c r="Y240" s="7">
+        <v>0.5</v>
       </c>
       <c r="Z240" s="10">
         <v>3</v>
       </c>
-      <c r="AA240" s="7" t="s">
-        <v>241</v>
+      <c r="AA240" s="7">
+        <v>0.5</v>
       </c>
       <c r="AB240" s="7" t="s">
         <v>110</v>
@@ -11752,7 +11668,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="I242" t="s">
         <v>18</v>
@@ -11771,7 +11687,7 @@
         <v>18</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V242" s="10">
         <v>40</v>
@@ -11807,7 +11723,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="I243" t="s">
         <v>18</v>
@@ -11826,7 +11742,7 @@
         <v>18</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V243" s="10">
         <v>40</v>
@@ -11862,7 +11778,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="I244" t="s">
         <v>18</v>
@@ -11881,7 +11797,7 @@
         <v>18</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V244" s="10">
         <v>40</v>
@@ -11917,7 +11833,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="I245" t="s">
         <v>18</v>
@@ -11936,7 +11852,7 @@
         <v>18</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V245" s="10">
         <v>40</v>
@@ -11984,7 +11900,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>18</v>
@@ -11998,7 +11914,7 @@
       <c r="O247" s="4"/>
       <c r="T247" s="1"/>
       <c r="U247" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V247" s="10">
         <v>120</v>
@@ -12034,7 +11950,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>18</v>
@@ -12048,7 +11964,7 @@
       <c r="O248" s="4"/>
       <c r="T248" s="1"/>
       <c r="U248" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V248" s="10">
         <v>120</v>
@@ -12084,7 +12000,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>18</v>
@@ -12098,7 +12014,7 @@
       <c r="O249" s="4"/>
       <c r="T249" s="1"/>
       <c r="U249" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V249" s="10">
         <v>120</v>
@@ -12134,7 +12050,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>18</v>
@@ -12148,7 +12064,7 @@
       <c r="O250" s="4"/>
       <c r="T250" s="1"/>
       <c r="U250" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V250" s="10">
         <v>120</v>
@@ -12196,7 +12112,7 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="M252" t="s">
         <v>18</v>
@@ -12232,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="AE252" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG252" s="8">
         <v>1</v>
@@ -12240,7 +12156,7 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="M253" t="s">
         <v>18</v>
@@ -12276,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="AE253" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG253" s="8">
         <v>2</v>
@@ -12284,7 +12200,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="M254" t="s">
         <v>18</v>
@@ -12320,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="AE254" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG254" s="8">
         <v>3</v>
@@ -12328,7 +12244,7 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="M255" t="s">
         <v>18</v>
@@ -12364,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="AE255" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG255" s="8">
         <v>4</v>
@@ -12372,7 +12288,7 @@
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>18</v>
@@ -12417,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="AE256" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG256" s="8">
         <v>1</v>
@@ -12425,7 +12341,7 @@
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>18</v>
@@ -12470,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="AE257" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG257" s="8">
         <v>2</v>
@@ -12478,7 +12394,7 @@
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>18</v>
@@ -12523,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="AE258" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG258" s="8">
         <v>3</v>
@@ -12531,7 +12447,7 @@
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>18</v>
@@ -12576,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="AE259" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG259" s="8">
         <v>4</v>
@@ -12596,7 +12512,7 @@
     </row>
     <row r="261" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>18</v>
@@ -12609,7 +12525,7 @@
         <v>18</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V261" s="10">
         <v>120</v>
@@ -12639,12 +12555,12 @@
         <v>1</v>
       </c>
       <c r="AE261" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>18</v>
@@ -12685,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="AE262" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.3">
@@ -12702,7 +12618,7 @@
     </row>
     <row r="264" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>18</v>
@@ -12715,7 +12631,7 @@
         <v>18</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V264" s="10">
         <v>160</v>
@@ -12745,12 +12661,12 @@
         <v>1</v>
       </c>
       <c r="AE264" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>18</v>
@@ -12791,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="AE265" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.3">
@@ -12808,7 +12724,7 @@
     </row>
     <row r="267" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>18</v>
@@ -12824,7 +12740,7 @@
       </c>
       <c r="T267" s="1"/>
       <c r="U267" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V267" s="11">
         <v>120</v>
@@ -12854,12 +12770,12 @@
         <v>1</v>
       </c>
       <c r="AE267" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>18</v>
@@ -12903,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="AE268" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.3">
@@ -12920,7 +12836,7 @@
     </row>
     <row r="270" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>18</v>
@@ -12933,7 +12849,7 @@
         <v>18</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V270" s="11">
         <v>80</v>
@@ -12963,12 +12879,12 @@
         <v>1</v>
       </c>
       <c r="AE270" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>18</v>
@@ -13009,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="AE271" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.3">
@@ -13026,7 +12942,7 @@
     </row>
     <row r="273" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>18</v>
@@ -13036,7 +12952,7 @@
       </c>
       <c r="T273" s="1"/>
       <c r="U273" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V273" s="11">
         <v>80</v>
@@ -13066,12 +12982,12 @@
         <v>1</v>
       </c>
       <c r="AE273" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>18</v>
@@ -13109,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="AE274" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.3">
@@ -13126,7 +13042,7 @@
     </row>
     <row r="276" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O276" s="4"/>
       <c r="S276" t="s">
@@ -13136,7 +13052,7 @@
         <v>18</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V276" s="10">
         <v>100</v>
@@ -13166,12 +13082,12 @@
         <v>1</v>
       </c>
       <c r="AE276" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O277" s="4"/>
       <c r="S277" t="s">
@@ -13209,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="AE277" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.3">
@@ -13226,7 +13142,7 @@
     </row>
     <row r="279" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I279" t="s">
         <v>18</v>
@@ -13239,7 +13155,7 @@
         <v>18</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V279" s="10">
         <v>5</v>
@@ -13284,7 +13200,7 @@
     </row>
     <row r="281" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>18</v>
@@ -13303,7 +13219,7 @@
         <v>18</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V281" s="10">
         <v>15</v>
@@ -13348,7 +13264,7 @@
     </row>
     <row r="283" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J283" t="s">
         <v>18</v>
@@ -13361,7 +13277,7 @@
         <v>18</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V283" s="10">
         <v>60</v>
@@ -13391,12 +13307,12 @@
         <v>1</v>
       </c>
       <c r="AE283" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O284" s="4"/>
       <c r="S284" t="s">
@@ -13434,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="AE284" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -13499,19 +13415,19 @@
         <v>21</v>
       </c>
       <c r="O1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" t="s">
         <v>304</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>305</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>306</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>307</v>
-      </c>
-      <c r="S1" t="s">
-        <v>308</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -13519,7 +13435,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -13545,7 +13461,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -13574,7 +13490,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13624,7 +13540,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -13656,7 +13572,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -13685,7 +13601,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -13721,12 +13637,12 @@
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -13761,7 +13677,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -13802,7 +13718,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -13840,7 +13756,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13878,7 +13794,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -13901,7 +13817,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -13940,12 +13856,12 @@
         <v>18</v>
       </c>
       <c r="T13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -14136,15 +14052,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
         <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -14155,7 +14071,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -14166,123 +14082,123 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A51F7-83E0-43AE-BCBE-77E4BE29BE7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46F31E-6DFD-46E0-A799-04E7384977E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tasks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="377">
   <si>
     <t>Task</t>
   </si>
@@ -1178,6 +1178,15 @@
   </si>
   <si>
     <t>troubleshooting</t>
+  </si>
+  <si>
+    <t>Extra 1</t>
+  </si>
+  <si>
+    <t>Extra 2</t>
+  </si>
+  <si>
+    <t>Extra 3</t>
   </si>
 </sst>
 </file>
@@ -3391,7 +3400,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AG284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="S228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13361,9 +13370,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EA75A-4C53-5041-B680-B852EC61F73B}">
   <sheetPr codeName="Blad3"/>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13900,6 +13911,183 @@
         <v>18</v>
       </c>
       <c r="S14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
         <v>18</v>
       </c>
     </row>

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46F31E-6DFD-46E0-A799-04E7384977E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE732BD-57C3-4A8A-A5F3-C99A9A305EDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tasks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="370">
   <si>
     <t>Task</t>
   </si>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>must be assigned every sprint to the same person</t>
-  </si>
-  <si>
-    <t>if not done by crew director</t>
   </si>
   <si>
     <t>if done by crew director</t>
@@ -1087,30 +1084,6 @@
     <t>special troubleshooting 4.3</t>
   </si>
   <si>
-    <t>check-up 1.1</t>
-  </si>
-  <si>
-    <t>check-up 2.1</t>
-  </si>
-  <si>
-    <t>check-up 3.1</t>
-  </si>
-  <si>
-    <t>check-up 4.1</t>
-  </si>
-  <si>
-    <t>check-up 1.2</t>
-  </si>
-  <si>
-    <t>check-up 2.2</t>
-  </si>
-  <si>
-    <t>check-up 3.2</t>
-  </si>
-  <si>
-    <t>check-up 4.2</t>
-  </si>
-  <si>
     <t>DurationExp.1</t>
   </si>
   <si>
@@ -1187,6 +1160,12 @@
   </si>
   <si>
     <t>Extra 3</t>
+  </si>
+  <si>
+    <t>check-up 1</t>
+  </si>
+  <si>
+    <t>check-up 2</t>
   </si>
 </sst>
 </file>
@@ -1600,61 +1579,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>88</v>
@@ -3398,13 +3377,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC006BA-5172-F749-B910-DD9D8C6897DD}">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:AG284"/>
+  <dimension ref="A1:AG280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S228" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA240" sqref="AA240"/>
+      <selection pane="bottomRight" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3428,100 +3407,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>233</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3633,7 +3612,7 @@
         <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="V5" s="7">
         <v>3</v>
@@ -4105,9 +4084,9 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AG18" s="8">
-        <f>SUM(V191,V195*AF195,V204,V208*AF208,V212*AF212,V225*AB225,V230,V235,V242,V247,V252)</f>
-        <v>540</v>
+      <c r="AG18" s="8" t="e">
+        <f>SUM(V191,V195*AF195,V204,V208*AF208,V212*AF212,V225*AB225,V230,V235,V242,V247,#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -6328,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="V86" s="7">
         <v>6</v>
@@ -8652,7 +8631,7 @@
         <v>18</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="V159" s="7">
         <v>4</v>
@@ -9062,7 +9041,7 @@
         <v>18</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="V171" s="7">
         <v>4</v>
@@ -9378,7 +9357,7 @@
         <v>18</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="V181" s="7">
         <v>2</v>
@@ -9680,7 +9659,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K191" t="s">
         <v>18</v>
@@ -9729,7 +9708,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K192" t="s">
         <v>18</v>
@@ -9778,7 +9757,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K193" t="s">
         <v>18</v>
@@ -9827,7 +9806,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K194" t="s">
         <v>18</v>
@@ -9876,7 +9855,7 @@
     </row>
     <row r="195" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="K195" t="s">
         <v>18</v>
@@ -9884,7 +9863,7 @@
       <c r="O195" s="4"/>
       <c r="T195" s="1"/>
       <c r="U195" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V195" s="7">
         <v>10</v>
@@ -9914,7 +9893,7 @@
     </row>
     <row r="196" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="K196" t="s">
         <v>18</v>
@@ -9922,7 +9901,7 @@
       <c r="O196" s="4"/>
       <c r="T196" s="1"/>
       <c r="U196" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V196" s="7">
         <v>10</v>
@@ -9952,7 +9931,7 @@
     </row>
     <row r="197" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="K197" t="s">
         <v>18</v>
@@ -9960,7 +9939,7 @@
       <c r="O197" s="4"/>
       <c r="T197" s="1"/>
       <c r="U197" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V197" s="7">
         <v>10</v>
@@ -9990,7 +9969,7 @@
     </row>
     <row r="198" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="K198" t="s">
         <v>18</v>
@@ -9998,7 +9977,7 @@
       <c r="O198" s="4"/>
       <c r="T198" s="1"/>
       <c r="U198" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V198" s="7">
         <v>10</v>
@@ -10028,7 +10007,7 @@
     </row>
     <row r="199" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="K199" t="s">
         <v>18</v>
@@ -10039,7 +10018,7 @@
       <c r="O199" s="4"/>
       <c r="T199" s="1"/>
       <c r="U199" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V199" s="7">
         <v>6</v>
@@ -10069,7 +10048,7 @@
     </row>
     <row r="200" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -10080,7 +10059,7 @@
       <c r="O200" s="4"/>
       <c r="T200" s="1"/>
       <c r="U200" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V200" s="7">
         <v>6</v>
@@ -10110,7 +10089,7 @@
     </row>
     <row r="201" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="K201" t="s">
         <v>18</v>
@@ -10121,7 +10100,7 @@
       <c r="O201" s="4"/>
       <c r="T201" s="1"/>
       <c r="U201" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V201" s="7">
         <v>6</v>
@@ -10151,7 +10130,7 @@
     </row>
     <row r="202" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -10162,7 +10141,7 @@
       <c r="O202" s="4"/>
       <c r="T202" s="1"/>
       <c r="U202" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V202" s="7">
         <v>6</v>
@@ -10205,7 +10184,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -10250,7 +10229,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10295,7 +10274,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
@@ -10340,7 +10319,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
@@ -10385,7 +10364,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
@@ -10393,7 +10372,7 @@
       <c r="O208" s="4"/>
       <c r="T208" s="1"/>
       <c r="U208" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V208" s="7">
         <v>1.5</v>
@@ -10432,7 +10411,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
@@ -10440,7 +10419,7 @@
       <c r="O209" s="4"/>
       <c r="T209" s="1"/>
       <c r="U209" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V209" s="7">
         <v>1.5</v>
@@ -10479,7 +10458,7 @@
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K210" t="s">
         <v>18</v>
@@ -10487,7 +10466,7 @@
       <c r="O210" s="4"/>
       <c r="T210" s="1"/>
       <c r="U210" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V210" s="7">
         <v>1.5</v>
@@ -10526,7 +10505,7 @@
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K211" t="s">
         <v>18</v>
@@ -10534,7 +10513,7 @@
       <c r="O211" s="4"/>
       <c r="T211" s="1"/>
       <c r="U211" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V211" s="7">
         <v>1.5</v>
@@ -10571,9 +10550,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
@@ -10583,7 +10562,9 @@
       </c>
       <c r="O212" s="4"/>
       <c r="T212" s="1"/>
-      <c r="U212" s="4"/>
+      <c r="U212" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V212" s="10">
         <v>12</v>
       </c>
@@ -10610,9 +10591,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>18</v>
@@ -10622,7 +10603,9 @@
       </c>
       <c r="O213" s="4"/>
       <c r="T213" s="1"/>
-      <c r="U213" s="4"/>
+      <c r="U213" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V213" s="10">
         <v>12</v>
       </c>
@@ -10649,9 +10632,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>18</v>
@@ -10661,7 +10644,9 @@
       </c>
       <c r="O214" s="4"/>
       <c r="T214" s="1"/>
-      <c r="U214" s="4"/>
+      <c r="U214" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V214" s="10">
         <v>12</v>
       </c>
@@ -10688,9 +10673,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>18</v>
@@ -10700,7 +10685,9 @@
       </c>
       <c r="O215" s="4"/>
       <c r="T215" s="1"/>
-      <c r="U215" s="4"/>
+      <c r="U215" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V215" s="10">
         <v>12</v>
       </c>
@@ -10727,9 +10714,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>18</v>
@@ -10739,7 +10726,9 @@
       </c>
       <c r="O216" s="4"/>
       <c r="T216" s="1"/>
-      <c r="U216" s="4"/>
+      <c r="U216" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V216" s="10">
         <v>8</v>
       </c>
@@ -10766,9 +10755,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>18</v>
@@ -10778,7 +10767,9 @@
       </c>
       <c r="O217" s="4"/>
       <c r="T217" s="1"/>
-      <c r="U217" s="4"/>
+      <c r="U217" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V217" s="10">
         <v>8</v>
       </c>
@@ -10805,9 +10796,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>18</v>
@@ -10817,7 +10808,9 @@
       </c>
       <c r="O218" s="4"/>
       <c r="T218" s="1"/>
-      <c r="U218" s="4"/>
+      <c r="U218" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V218" s="10">
         <v>8</v>
       </c>
@@ -10844,9 +10837,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>18</v>
@@ -10856,7 +10849,9 @@
       </c>
       <c r="O219" s="4"/>
       <c r="T219" s="1"/>
-      <c r="U219" s="4"/>
+      <c r="U219" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V219" s="10">
         <v>8</v>
       </c>
@@ -10883,9 +10878,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>18</v>
@@ -10898,7 +10893,9 @@
       </c>
       <c r="O220" s="4"/>
       <c r="T220" s="1"/>
-      <c r="U220" s="4"/>
+      <c r="U220" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V220" s="10">
         <v>6</v>
       </c>
@@ -10925,9 +10922,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
@@ -10940,7 +10937,9 @@
       </c>
       <c r="O221" s="4"/>
       <c r="T221" s="1"/>
-      <c r="U221" s="4"/>
+      <c r="U221" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V221" s="10">
         <v>6</v>
       </c>
@@ -10967,9 +10966,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>18</v>
@@ -10982,7 +10981,9 @@
       </c>
       <c r="O222" s="4"/>
       <c r="T222" s="1"/>
-      <c r="U222" s="4"/>
+      <c r="U222" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V222" s="10">
         <v>6</v>
       </c>
@@ -11009,9 +11010,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>18</v>
@@ -11024,7 +11025,9 @@
       </c>
       <c r="O223" s="4"/>
       <c r="T223" s="1"/>
-      <c r="U223" s="4"/>
+      <c r="U223" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="V223" s="10">
         <v>6</v>
       </c>
@@ -11065,7 +11068,7 @@
     </row>
     <row r="225" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I225" t="s">
         <v>18</v>
@@ -11109,7 +11112,7 @@
     </row>
     <row r="226" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I226" t="s">
         <v>18</v>
@@ -11153,7 +11156,7 @@
     </row>
     <row r="227" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="228" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I228" t="s">
         <v>18</v>
@@ -11253,7 +11256,7 @@
     </row>
     <row r="230" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I230" t="s">
         <v>18</v>
@@ -11297,7 +11300,7 @@
     </row>
     <row r="231" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I231" t="s">
         <v>18</v>
@@ -11341,7 +11344,7 @@
     </row>
     <row r="232" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
@@ -11385,7 +11388,7 @@
     </row>
     <row r="233" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>
@@ -11441,7 +11444,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M235" t="s">
         <v>18</v>
@@ -11483,7 +11486,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M236" t="s">
         <v>18</v>
@@ -11525,7 +11528,7 @@
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M237" t="s">
         <v>18</v>
@@ -11567,7 +11570,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M238" t="s">
         <v>18</v>
@@ -11677,7 +11680,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I242" t="s">
         <v>18</v>
@@ -11732,7 +11735,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I243" t="s">
         <v>18</v>
@@ -11787,7 +11790,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I244" t="s">
         <v>18</v>
@@ -11842,7 +11845,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I245" t="s">
         <v>18</v>
@@ -11909,7 +11912,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>18</v>
@@ -11959,7 +11962,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>18</v>
@@ -12009,7 +12012,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>18</v>
@@ -12059,7 +12062,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>18</v>
@@ -12121,7 +12124,16 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" t="s">
+        <v>18</v>
+      </c>
+      <c r="J252" t="s">
+        <v>18</v>
       </c>
       <c r="M252" t="s">
         <v>18</v>
@@ -12130,22 +12142,22 @@
       <c r="T252" s="1"/>
       <c r="U252" s="4"/>
       <c r="V252" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W252" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X252" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y252" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z252" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA252" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB252" s="8">
         <v>1</v>
@@ -12165,7 +12177,16 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I253" t="s">
+        <v>18</v>
+      </c>
+      <c r="J253" t="s">
+        <v>18</v>
       </c>
       <c r="M253" t="s">
         <v>18</v>
@@ -12174,22 +12195,22 @@
       <c r="T253" s="1"/>
       <c r="U253" s="4"/>
       <c r="V253" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W253" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X253" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y253" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z253" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA253" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB253" s="8">
         <v>1</v>
@@ -12209,7 +12230,16 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I254" t="s">
+        <v>18</v>
+      </c>
+      <c r="J254" t="s">
+        <v>18</v>
       </c>
       <c r="M254" t="s">
         <v>18</v>
@@ -12218,22 +12248,22 @@
       <c r="T254" s="1"/>
       <c r="U254" s="4"/>
       <c r="V254" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W254" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X254" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y254" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z254" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA254" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB254" s="8">
         <v>1</v>
@@ -12253,7 +12283,16 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I255" t="s">
+        <v>18</v>
+      </c>
+      <c r="J255" t="s">
+        <v>18</v>
       </c>
       <c r="M255" t="s">
         <v>18</v>
@@ -12262,22 +12301,22 @@
       <c r="T255" s="1"/>
       <c r="U255" s="4"/>
       <c r="V255" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W255" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X255" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y255" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z255" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA255" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB255" s="8">
         <v>1</v>
@@ -12296,147 +12335,97 @@
       </c>
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I256" t="s">
-        <v>18</v>
-      </c>
-      <c r="J256" t="s">
-        <v>18</v>
-      </c>
-      <c r="M256" t="s">
-        <v>18</v>
-      </c>
       <c r="O256" s="4"/>
       <c r="T256" s="1"/>
       <c r="U256" s="4"/>
-      <c r="V256" s="10">
+      <c r="V256" s="7"/>
+      <c r="W256" s="7"/>
+      <c r="X256" s="7"/>
+      <c r="Y256" s="7"/>
+      <c r="Z256" s="7"/>
+      <c r="AA256" s="7"/>
+      <c r="AE256" s="7"/>
+    </row>
+    <row r="257" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O257" s="4"/>
+      <c r="S257" t="s">
+        <v>18</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U257" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="V257" s="10">
+        <v>120</v>
+      </c>
+      <c r="W257" s="10">
         <v>10</v>
       </c>
-      <c r="W256" s="10">
-        <v>2</v>
-      </c>
-      <c r="X256" s="10">
+      <c r="X257" s="10">
+        <v>120</v>
+      </c>
+      <c r="Y257" s="10">
         <v>10</v>
       </c>
-      <c r="Y256" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z256" s="10">
+      <c r="Z257" s="10">
+        <v>120</v>
+      </c>
+      <c r="AA257" s="10">
         <v>10</v>
       </c>
-      <c r="AA256" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB256" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC256" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD256" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE256" s="7" t="s">
+      <c r="AB257" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC257" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD257" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE257" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AG256" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I257" t="s">
-        <v>18</v>
-      </c>
-      <c r="J257" t="s">
-        <v>18</v>
-      </c>
-      <c r="M257" t="s">
-        <v>18</v>
-      </c>
-      <c r="O257" s="4"/>
-      <c r="T257" s="1"/>
-      <c r="U257" s="4"/>
-      <c r="V257" s="10">
-        <v>10</v>
-      </c>
-      <c r="W257" s="10">
-        <v>2</v>
-      </c>
-      <c r="X257" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y257" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z257" s="10">
-        <v>10</v>
-      </c>
-      <c r="AA257" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB257" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC257" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD257" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE257" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG257" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="B258" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I258" t="s">
-        <v>18</v>
-      </c>
-      <c r="J258" t="s">
-        <v>18</v>
-      </c>
-      <c r="M258" t="s">
-        <v>18</v>
-      </c>
       <c r="O258" s="4"/>
-      <c r="T258" s="1"/>
-      <c r="U258" s="4"/>
+      <c r="S258" t="s">
+        <v>18</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U258" s="5"/>
       <c r="V258" s="10">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="W258" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X258" s="10">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Y258" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z258" s="10">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AA258" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB258" s="8">
         <v>1</v>
@@ -12448,78 +12437,70 @@
         <v>1</v>
       </c>
       <c r="AE258" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG258" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I259" t="s">
-        <v>18</v>
-      </c>
-      <c r="J259" t="s">
-        <v>18</v>
-      </c>
-      <c r="M259" t="s">
-        <v>18</v>
-      </c>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O259" s="4"/>
       <c r="T259" s="1"/>
       <c r="U259" s="4"/>
-      <c r="V259" s="10">
-        <v>10</v>
-      </c>
-      <c r="W259" s="10">
-        <v>2</v>
-      </c>
-      <c r="X259" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y259" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z259" s="10">
-        <v>10</v>
-      </c>
-      <c r="AA259" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB259" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC259" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD259" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE259" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG259" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="V259" s="7"/>
+      <c r="W259" s="7"/>
+      <c r="X259" s="7"/>
+      <c r="Y259" s="7"/>
+      <c r="Z259" s="7"/>
+      <c r="AA259" s="7"/>
+      <c r="AE259" s="7"/>
+    </row>
+    <row r="260" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="O260" s="4"/>
-      <c r="T260" s="1"/>
-      <c r="U260" s="4"/>
-      <c r="V260" s="7"/>
-      <c r="W260" s="7"/>
-      <c r="X260" s="7"/>
-      <c r="Y260" s="7"/>
-      <c r="Z260" s="7"/>
-      <c r="AA260" s="7"/>
-      <c r="AE260" s="7"/>
-    </row>
-    <row r="261" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="S260" t="s">
+        <v>18</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U260" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="V260" s="10">
+        <v>160</v>
+      </c>
+      <c r="W260" s="10">
+        <v>20</v>
+      </c>
+      <c r="X260" s="10">
+        <v>160</v>
+      </c>
+      <c r="Y260" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z260" s="10">
+        <v>160</v>
+      </c>
+      <c r="AA260" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB260" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC260" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD260" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE260" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>248</v>
       </c>
@@ -12533,132 +12514,136 @@
       <c r="T261" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U261" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="U261" s="5"/>
       <c r="V261" s="10">
+        <v>85</v>
+      </c>
+      <c r="W261" s="10">
+        <v>15</v>
+      </c>
+      <c r="X261" s="10">
+        <v>85</v>
+      </c>
+      <c r="Y261" s="10">
+        <v>15</v>
+      </c>
+      <c r="Z261" s="10">
+        <v>85</v>
+      </c>
+      <c r="AA261" s="10">
+        <v>15</v>
+      </c>
+      <c r="AB261" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC261" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD261" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE261" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O262" s="4"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="4"/>
+      <c r="V262" s="7"/>
+      <c r="W262" s="7"/>
+      <c r="X262" s="7"/>
+      <c r="Y262" s="7"/>
+      <c r="Z262" s="7"/>
+      <c r="AA262" s="7"/>
+      <c r="AE262" s="7"/>
+    </row>
+    <row r="263" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O263" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T263" s="1"/>
+      <c r="U263" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V263" s="11">
         <v>120</v>
       </c>
-      <c r="W261" s="10">
+      <c r="W263" s="11">
         <v>10</v>
       </c>
-      <c r="X261" s="10">
+      <c r="X263" s="11">
         <v>120</v>
       </c>
-      <c r="Y261" s="10">
+      <c r="Y263" s="11">
         <v>10</v>
       </c>
-      <c r="Z261" s="10">
+      <c r="Z263" s="11">
         <v>120</v>
       </c>
-      <c r="AA261" s="10">
+      <c r="AA263" s="11">
         <v>10</v>
       </c>
-      <c r="AB261" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC261" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD261" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE261" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O262" s="4"/>
-      <c r="S262" t="s">
-        <v>18</v>
-      </c>
-      <c r="T262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U262" s="5"/>
-      <c r="V262" s="10">
-        <v>70</v>
-      </c>
-      <c r="W262" s="10">
-        <v>8</v>
-      </c>
-      <c r="X262" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y262" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z262" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA262" s="10">
-        <v>8</v>
-      </c>
-      <c r="AB262" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC262" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD262" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE262" s="7" t="s">
+      <c r="AB263" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC263" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD263" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE263" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="O263" s="4"/>
-      <c r="T263" s="1"/>
-      <c r="U263" s="4"/>
-      <c r="V263" s="7"/>
-      <c r="W263" s="7"/>
-      <c r="X263" s="7"/>
-      <c r="Y263" s="7"/>
-      <c r="Z263" s="7"/>
-      <c r="AA263" s="7"/>
-      <c r="AE263" s="7"/>
-    </row>
-    <row r="264" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O264" s="4"/>
-      <c r="S264" t="s">
-        <v>18</v>
-      </c>
-      <c r="T264" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U264" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="V264" s="10">
-        <v>160</v>
-      </c>
-      <c r="W264" s="10">
-        <v>20</v>
-      </c>
-      <c r="X264" s="10">
-        <v>160</v>
-      </c>
-      <c r="Y264" s="10">
-        <v>20</v>
-      </c>
-      <c r="Z264" s="10">
-        <v>160</v>
-      </c>
-      <c r="AA264" s="10">
-        <v>20</v>
+      <c r="E264" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O264" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T264" s="1"/>
+      <c r="U264" s="5"/>
+      <c r="V264" s="11">
+        <v>70</v>
+      </c>
+      <c r="W264" s="11">
+        <v>8</v>
+      </c>
+      <c r="X264" s="11">
+        <v>70</v>
+      </c>
+      <c r="Y264" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z264" s="11">
+        <v>70</v>
+      </c>
+      <c r="AA264" s="11">
+        <v>8</v>
       </c>
       <c r="AB264" s="8">
         <v>1</v>
@@ -12669,105 +12654,102 @@
       <c r="AD264" s="8">
         <v>1</v>
       </c>
-      <c r="AE264" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A265" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="AE264" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O265" s="4"/>
-      <c r="S265" t="s">
-        <v>18</v>
-      </c>
-      <c r="T265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U265" s="5"/>
-      <c r="V265" s="10">
-        <v>85</v>
-      </c>
-      <c r="W265" s="10">
-        <v>15</v>
-      </c>
-      <c r="X265" s="10">
-        <v>85</v>
-      </c>
-      <c r="Y265" s="10">
-        <v>15</v>
-      </c>
-      <c r="Z265" s="10">
-        <v>85</v>
-      </c>
-      <c r="AA265" s="10">
-        <v>15</v>
-      </c>
-      <c r="AB265" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC265" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD265" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE265" s="7" t="s">
+      <c r="T265" s="1"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="7"/>
+      <c r="W265" s="7"/>
+      <c r="X265" s="7"/>
+      <c r="Y265" s="7"/>
+      <c r="Z265" s="7"/>
+      <c r="AA265" s="7"/>
+      <c r="AE265" s="7"/>
+    </row>
+    <row r="266" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O266" s="4"/>
+      <c r="S266" t="s">
+        <v>18</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U266" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V266" s="11">
+        <v>80</v>
+      </c>
+      <c r="W266" s="11">
+        <v>8</v>
+      </c>
+      <c r="X266" s="11">
+        <v>80</v>
+      </c>
+      <c r="Y266" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z266" s="11">
+        <v>80</v>
+      </c>
+      <c r="AA266" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB266" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC266" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD266" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE266" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="O266" s="4"/>
-      <c r="T266" s="1"/>
-      <c r="U266" s="4"/>
-      <c r="V266" s="7"/>
-      <c r="W266" s="7"/>
-      <c r="X266" s="7"/>
-      <c r="Y266" s="7"/>
-      <c r="Z266" s="7"/>
-      <c r="AA266" s="7"/>
-      <c r="AE266" s="7"/>
-    </row>
-    <row r="267" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E267" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O267" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T267" s="1"/>
-      <c r="U267" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="O267" s="4"/>
+      <c r="S267" t="s">
+        <v>18</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U267" s="5"/>
       <c r="V267" s="11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="W267" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X267" s="11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Y267" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z267" s="11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AA267" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB267" s="8">
         <v>1</v>
@@ -12779,104 +12761,95 @@
         <v>1</v>
       </c>
       <c r="AE267" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O268" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O268" s="4"/>
       <c r="T268" s="1"/>
-      <c r="U268" s="5"/>
-      <c r="V268" s="11">
-        <v>70</v>
-      </c>
-      <c r="W268" s="11">
+      <c r="U268" s="4"/>
+      <c r="V268" s="7"/>
+      <c r="W268" s="7"/>
+      <c r="X268" s="7"/>
+      <c r="Y268" s="7"/>
+      <c r="Z268" s="7"/>
+      <c r="AA268" s="7"/>
+      <c r="AE268" s="7"/>
+    </row>
+    <row r="269" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O269" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T269" s="1"/>
+      <c r="U269" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="V269" s="11">
+        <v>80</v>
+      </c>
+      <c r="W269" s="11">
         <v>8</v>
       </c>
-      <c r="X268" s="11">
-        <v>70</v>
-      </c>
-      <c r="Y268" s="11">
+      <c r="X269" s="11">
+        <v>80</v>
+      </c>
+      <c r="Y269" s="11">
         <v>8</v>
       </c>
-      <c r="Z268" s="11">
-        <v>70</v>
-      </c>
-      <c r="AA268" s="11">
+      <c r="Z269" s="11">
+        <v>80</v>
+      </c>
+      <c r="AA269" s="11">
         <v>8</v>
       </c>
-      <c r="AB268" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC268" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD268" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE268" s="9" t="s">
+      <c r="AB269" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC269" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD269" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE269" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="O269" s="4"/>
-      <c r="T269" s="1"/>
-      <c r="U269" s="4"/>
-      <c r="V269" s="7"/>
-      <c r="W269" s="7"/>
-      <c r="X269" s="7"/>
-      <c r="Y269" s="7"/>
-      <c r="Z269" s="7"/>
-      <c r="AA269" s="7"/>
-      <c r="AE269" s="7"/>
-    </row>
-    <row r="270" spans="1:33" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O270" s="4"/>
-      <c r="S270" t="s">
-        <v>18</v>
-      </c>
-      <c r="T270" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U270" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="O270" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T270" s="1"/>
+      <c r="U270" s="5"/>
       <c r="V270" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="W270" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X270" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Y270" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z270" s="11">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AA270" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB270" s="8">
         <v>1</v>
@@ -12888,97 +12861,94 @@
         <v>1</v>
       </c>
       <c r="AE270" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O271" s="4"/>
-      <c r="S271" t="s">
-        <v>18</v>
-      </c>
-      <c r="T271" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U271" s="5"/>
-      <c r="V271" s="11">
-        <v>50</v>
-      </c>
-      <c r="W271" s="11">
-        <v>6</v>
-      </c>
-      <c r="X271" s="11">
-        <v>50</v>
-      </c>
-      <c r="Y271" s="11">
-        <v>6</v>
-      </c>
-      <c r="Z271" s="11">
-        <v>50</v>
-      </c>
-      <c r="AA271" s="11">
-        <v>6</v>
-      </c>
-      <c r="AB271" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC271" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD271" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE271" s="9" t="s">
+      <c r="T271" s="1"/>
+      <c r="U271" s="4"/>
+      <c r="V271" s="7"/>
+      <c r="W271" s="7"/>
+      <c r="X271" s="7"/>
+      <c r="Y271" s="7"/>
+      <c r="Z271" s="7"/>
+      <c r="AA271" s="7"/>
+      <c r="AE271" s="7"/>
+    </row>
+    <row r="272" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O272" s="4"/>
+      <c r="S272" t="s">
+        <v>18</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U272" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="V272" s="10">
+        <v>100</v>
+      </c>
+      <c r="W272" s="10">
+        <v>10</v>
+      </c>
+      <c r="X272" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y272" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z272" s="10">
+        <v>100</v>
+      </c>
+      <c r="AA272" s="10">
+        <v>10</v>
+      </c>
+      <c r="AB272" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC272" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD272" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE272" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="O272" s="4"/>
-      <c r="T272" s="1"/>
-      <c r="U272" s="4"/>
-      <c r="V272" s="7"/>
-      <c r="W272" s="7"/>
-      <c r="X272" s="7"/>
-      <c r="Y272" s="7"/>
-      <c r="Z272" s="7"/>
-      <c r="AA272" s="7"/>
-      <c r="AE272" s="7"/>
-    </row>
-    <row r="273" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O273" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T273" s="1"/>
-      <c r="U273" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="V273" s="11">
-        <v>80</v>
-      </c>
-      <c r="W273" s="11">
+      <c r="O273" s="4"/>
+      <c r="S273" t="s">
+        <v>18</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U273" s="5"/>
+      <c r="V273" s="10">
+        <v>60</v>
+      </c>
+      <c r="W273" s="10">
         <v>8</v>
       </c>
-      <c r="X273" s="11">
-        <v>80</v>
-      </c>
-      <c r="Y273" s="11">
+      <c r="X273" s="10">
+        <v>60</v>
+      </c>
+      <c r="Y273" s="10">
         <v>8</v>
       </c>
-      <c r="Z273" s="11">
-        <v>80</v>
-      </c>
-      <c r="AA273" s="11">
+      <c r="Z273" s="10">
+        <v>60</v>
+      </c>
+      <c r="AA273" s="10">
         <v>8</v>
       </c>
       <c r="AB273" s="8">
@@ -12990,113 +12960,92 @@
       <c r="AD273" s="8">
         <v>1</v>
       </c>
-      <c r="AE273" s="9" t="s">
-        <v>267</v>
+      <c r="AE273" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O274" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="O274" s="4"/>
       <c r="T274" s="1"/>
-      <c r="U274" s="5"/>
-      <c r="V274" s="11">
-        <v>50</v>
-      </c>
-      <c r="W274" s="11">
-        <v>6</v>
-      </c>
-      <c r="X274" s="11">
-        <v>50</v>
-      </c>
-      <c r="Y274" s="11">
-        <v>6</v>
-      </c>
-      <c r="Z274" s="11">
-        <v>50</v>
-      </c>
-      <c r="AA274" s="11">
-        <v>6</v>
-      </c>
-      <c r="AB274" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC274" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD274" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE274" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="U274" s="4"/>
+      <c r="V274" s="7"/>
+      <c r="W274" s="7"/>
+      <c r="X274" s="7"/>
+      <c r="Y274" s="7"/>
+      <c r="Z274" s="7"/>
+      <c r="AA274" s="7"/>
+      <c r="AE274" s="7"/>
+    </row>
+    <row r="275" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I275" t="s">
+        <v>18</v>
+      </c>
       <c r="O275" s="4"/>
-      <c r="T275" s="1"/>
-      <c r="U275" s="4"/>
-      <c r="V275" s="7"/>
-      <c r="W275" s="7"/>
-      <c r="X275" s="7"/>
-      <c r="Y275" s="7"/>
-      <c r="Z275" s="7"/>
-      <c r="AA275" s="7"/>
+      <c r="S275" t="s">
+        <v>18</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U275" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="V275" s="10">
+        <v>5</v>
+      </c>
+      <c r="W275" s="10">
+        <v>0</v>
+      </c>
+      <c r="X275" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y275" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC275" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD275" s="8">
+        <v>1</v>
+      </c>
       <c r="AE275" s="7"/>
     </row>
-    <row r="276" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="4" t="s">
-        <v>253</v>
-      </c>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O276" s="4"/>
-      <c r="S276" t="s">
-        <v>18</v>
-      </c>
-      <c r="T276" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U276" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="V276" s="10">
-        <v>100</v>
-      </c>
-      <c r="W276" s="10">
-        <v>10</v>
-      </c>
-      <c r="X276" s="10">
-        <v>100</v>
-      </c>
-      <c r="Y276" s="10">
-        <v>10</v>
-      </c>
-      <c r="Z276" s="10">
-        <v>100</v>
-      </c>
-      <c r="AA276" s="10">
-        <v>10</v>
-      </c>
-      <c r="AB276" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC276" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD276" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE276" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="T276" s="1"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="7"/>
+      <c r="W276" s="7"/>
+      <c r="X276" s="7"/>
+      <c r="Y276" s="7"/>
+      <c r="Z276" s="7"/>
+      <c r="AA276" s="7"/>
+      <c r="AE276" s="7"/>
+    </row>
+    <row r="277" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I277" t="s">
+        <v>18</v>
+      </c>
+      <c r="K277" t="s">
+        <v>18</v>
       </c>
       <c r="O277" s="4"/>
       <c r="S277" t="s">
@@ -13105,24 +13054,26 @@
       <c r="T277" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U277" s="5"/>
+      <c r="U277" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="V277" s="10">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="W277" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X277" s="10">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="Y277" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z277" s="10">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AA277" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB277" s="8">
         <v>1</v>
@@ -13133,9 +13084,7 @@
       <c r="AD277" s="8">
         <v>1</v>
       </c>
-      <c r="AE277" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="AE277" s="7"/>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O278" s="4"/>
@@ -13151,9 +13100,9 @@
     </row>
     <row r="279" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I279" t="s">
+        <v>255</v>
+      </c>
+      <c r="J279" t="s">
         <v>18</v>
       </c>
       <c r="O279" s="4"/>
@@ -13164,25 +13113,25 @@
         <v>18</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V279" s="10">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="W279" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X279" s="10">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="Y279" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z279" s="10">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="AA279" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB279" s="8">
         <v>1</v>
@@ -13193,173 +13142,51 @@
       <c r="AD279" s="8">
         <v>1</v>
       </c>
-      <c r="AE279" s="7"/>
+      <c r="AE279" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="O280" s="4"/>
-      <c r="T280" s="1"/>
+      <c r="S280" t="s">
+        <v>18</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="U280" s="4"/>
-      <c r="V280" s="7"/>
-      <c r="W280" s="7"/>
-      <c r="X280" s="7"/>
-      <c r="Y280" s="7"/>
-      <c r="Z280" s="7"/>
-      <c r="AA280" s="7"/>
-      <c r="AE280" s="7"/>
-    </row>
-    <row r="281" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A281" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I281" t="s">
-        <v>18</v>
-      </c>
-      <c r="K281" t="s">
-        <v>18</v>
-      </c>
-      <c r="O281" s="4"/>
-      <c r="S281" t="s">
-        <v>18</v>
-      </c>
-      <c r="T281" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U281" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="V281" s="10">
-        <v>15</v>
-      </c>
-      <c r="W281" s="10">
-        <v>0</v>
-      </c>
-      <c r="X281" s="10">
-        <v>15</v>
-      </c>
-      <c r="Y281" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z281" s="10">
-        <v>15</v>
-      </c>
-      <c r="AA281" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB281" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC281" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD281" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE281" s="7"/>
-    </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O282" s="4"/>
-      <c r="T282" s="1"/>
-      <c r="U282" s="4"/>
-      <c r="V282" s="7"/>
-      <c r="W282" s="7"/>
-      <c r="X282" s="7"/>
-      <c r="Y282" s="7"/>
-      <c r="Z282" s="7"/>
-      <c r="AA282" s="7"/>
-      <c r="AE282" s="7"/>
-    </row>
-    <row r="283" spans="1:31" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J283" t="s">
-        <v>18</v>
-      </c>
-      <c r="O283" s="4"/>
-      <c r="S283" t="s">
-        <v>18</v>
-      </c>
-      <c r="T283" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U283" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="V283" s="10">
-        <v>60</v>
-      </c>
-      <c r="W283" s="10">
-        <v>6</v>
-      </c>
-      <c r="X283" s="10">
-        <v>60</v>
-      </c>
-      <c r="Y283" s="10">
-        <v>6</v>
-      </c>
-      <c r="Z283" s="10">
-        <v>60</v>
-      </c>
-      <c r="AA283" s="10">
-        <v>6</v>
-      </c>
-      <c r="AB283" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC283" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD283" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE283" s="7" t="s">
+      <c r="V280" s="10">
+        <v>80</v>
+      </c>
+      <c r="W280" s="10">
+        <v>8</v>
+      </c>
+      <c r="X280" s="10">
+        <v>80</v>
+      </c>
+      <c r="Y280" s="10">
+        <v>8</v>
+      </c>
+      <c r="Z280" s="10">
+        <v>80</v>
+      </c>
+      <c r="AA280" s="10">
+        <v>8</v>
+      </c>
+      <c r="AB280" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC280" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD280" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE280" s="7" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A284" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="O284" s="4"/>
-      <c r="S284" t="s">
-        <v>18</v>
-      </c>
-      <c r="T284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U284" s="4"/>
-      <c r="V284" s="10">
-        <v>80</v>
-      </c>
-      <c r="W284" s="10">
-        <v>8</v>
-      </c>
-      <c r="X284" s="10">
-        <v>80</v>
-      </c>
-      <c r="Y284" s="10">
-        <v>8</v>
-      </c>
-      <c r="Z284" s="10">
-        <v>80</v>
-      </c>
-      <c r="AA284" s="10">
-        <v>8</v>
-      </c>
-      <c r="AB284" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC284" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD284" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE284" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -13372,9 +13199,7 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13426,19 +13251,19 @@
         <v>21</v>
       </c>
       <c r="O1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P1" t="s">
         <v>303</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>305</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>306</v>
-      </c>
-      <c r="S1" t="s">
-        <v>307</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -13446,7 +13271,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -13472,7 +13297,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -13501,7 +13326,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13551,7 +13376,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -13583,7 +13408,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -13612,7 +13437,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -13648,12 +13473,12 @@
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -13688,7 +13513,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -13729,7 +13554,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -13767,7 +13592,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13805,7 +13630,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -13828,7 +13653,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -13867,12 +13692,12 @@
         <v>18</v>
       </c>
       <c r="T13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -13916,7 +13741,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -13975,7 +13800,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -14034,7 +13859,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -14240,15 +14065,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -14259,7 +14084,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -14270,123 +14095,123 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE732BD-57C3-4A8A-A5F3-C99A9A305EDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ACF7A3-0E36-4E05-97CD-7ED530B8F108}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tasks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="361">
   <si>
     <t>Task</t>
   </si>
@@ -1048,42 +1048,6 @@
 can only be done whenever prep check-up during sprint is completed</t>
   </si>
   <si>
-    <t>special troubleshooting 1.1</t>
-  </si>
-  <si>
-    <t>special troubleshooting 2.1</t>
-  </si>
-  <si>
-    <t>special troubleshooting 3.1</t>
-  </si>
-  <si>
-    <t>special troubleshooting 4.1</t>
-  </si>
-  <si>
-    <t>special troubleshooting 1.2</t>
-  </si>
-  <si>
-    <t>special troubleshooting 2.2</t>
-  </si>
-  <si>
-    <t>special troubleshooting 3.2</t>
-  </si>
-  <si>
-    <t>special troubleshooting 4.2</t>
-  </si>
-  <si>
-    <t>special troubleshooting 1.3</t>
-  </si>
-  <si>
-    <t>special troubleshooting 2.3</t>
-  </si>
-  <si>
-    <t>special troubleshooting 3.3</t>
-  </si>
-  <si>
-    <t>special troubleshooting 4.3</t>
-  </si>
-  <si>
     <t>DurationExp.1</t>
   </si>
   <si>
@@ -1166,6 +1130,15 @@
   </si>
   <si>
     <t>check-up 2</t>
+  </si>
+  <si>
+    <t>special troubleshooting 1</t>
+  </si>
+  <si>
+    <t>special troubleshooting 2</t>
+  </si>
+  <si>
+    <t>special troubleshooting 3</t>
   </si>
 </sst>
 </file>
@@ -3379,11 +3352,11 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AG280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A201" sqref="A201"/>
+      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3467,31 +3440,31 @@
         <v>233</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>3</v>
@@ -3612,7 +3585,7 @@
         <v>18</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="V5" s="7">
         <v>3</v>
@@ -6307,7 +6280,7 @@
         <v>18</v>
       </c>
       <c r="U86" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="V86" s="7">
         <v>6</v>
@@ -8631,7 +8604,7 @@
         <v>18</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="V159" s="7">
         <v>4</v>
@@ -9041,7 +9014,7 @@
         <v>18</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="V171" s="7">
         <v>4</v>
@@ -9357,7 +9330,7 @@
         <v>18</v>
       </c>
       <c r="U181" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="V181" s="7">
         <v>2</v>
@@ -9659,7 +9632,7 @@
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K191" t="s">
         <v>18</v>
@@ -9708,7 +9681,7 @@
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K192" t="s">
         <v>18</v>
@@ -9757,7 +9730,7 @@
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K193" t="s">
         <v>18</v>
@@ -9806,7 +9779,7 @@
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K194" t="s">
         <v>18</v>
@@ -9855,7 +9828,7 @@
     </row>
     <row r="195" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K195" t="s">
         <v>18</v>
@@ -9893,7 +9866,7 @@
     </row>
     <row r="196" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K196" t="s">
         <v>18</v>
@@ -9931,7 +9904,7 @@
     </row>
     <row r="197" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K197" t="s">
         <v>18</v>
@@ -9969,7 +9942,7 @@
     </row>
     <row r="198" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K198" t="s">
         <v>18</v>
@@ -10007,7 +9980,7 @@
     </row>
     <row r="199" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K199" t="s">
         <v>18</v>
@@ -10048,7 +10021,7 @@
     </row>
     <row r="200" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K200" t="s">
         <v>18</v>
@@ -10089,7 +10062,7 @@
     </row>
     <row r="201" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K201" t="s">
         <v>18</v>
@@ -10130,7 +10103,7 @@
     </row>
     <row r="202" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K202" t="s">
         <v>18</v>
@@ -10184,7 +10157,7 @@
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K204" t="s">
         <v>18</v>
@@ -10229,7 +10202,7 @@
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K205" t="s">
         <v>18</v>
@@ -10274,7 +10247,7 @@
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K206" t="s">
         <v>18</v>
@@ -10319,7 +10292,7 @@
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K207" t="s">
         <v>18</v>
@@ -10364,7 +10337,7 @@
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K208" t="s">
         <v>18</v>
@@ -10411,7 +10384,7 @@
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K209" t="s">
         <v>18</v>
@@ -10458,7 +10431,7 @@
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K210" t="s">
         <v>18</v>
@@ -10505,7 +10478,7 @@
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K211" t="s">
         <v>18</v>
@@ -10552,7 +10525,7 @@
     </row>
     <row r="212" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>18</v>
@@ -10593,7 +10566,7 @@
     </row>
     <row r="213" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>18</v>
@@ -10634,7 +10607,7 @@
     </row>
     <row r="214" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>18</v>
@@ -10675,7 +10648,7 @@
     </row>
     <row r="215" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>18</v>
@@ -10716,7 +10689,7 @@
     </row>
     <row r="216" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>18</v>
@@ -10757,7 +10730,7 @@
     </row>
     <row r="217" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>18</v>
@@ -10798,7 +10771,7 @@
     </row>
     <row r="218" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>18</v>
@@ -10839,7 +10812,7 @@
     </row>
     <row r="219" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>18</v>
@@ -10880,7 +10853,7 @@
     </row>
     <row r="220" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>18</v>
@@ -10924,7 +10897,7 @@
     </row>
     <row r="221" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>18</v>
@@ -10968,7 +10941,7 @@
     </row>
     <row r="222" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>18</v>
@@ -11012,7 +10985,7 @@
     </row>
     <row r="223" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>18</v>
@@ -11068,7 +11041,7 @@
     </row>
     <row r="225" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I225" t="s">
         <v>18</v>
@@ -11112,7 +11085,7 @@
     </row>
     <row r="226" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I226" t="s">
         <v>18</v>
@@ -11156,7 +11129,7 @@
     </row>
     <row r="227" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
@@ -11200,7 +11173,7 @@
     </row>
     <row r="228" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I228" t="s">
         <v>18</v>
@@ -11256,7 +11229,7 @@
     </row>
     <row r="230" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I230" t="s">
         <v>18</v>
@@ -11300,7 +11273,7 @@
     </row>
     <row r="231" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I231" t="s">
         <v>18</v>
@@ -11344,7 +11317,7 @@
     </row>
     <row r="232" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
@@ -11388,7 +11361,7 @@
     </row>
     <row r="233" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I233" t="s">
         <v>18</v>
@@ -11444,7 +11417,7 @@
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M235" t="s">
         <v>18</v>
@@ -11486,7 +11459,7 @@
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M236" t="s">
         <v>18</v>
@@ -11528,7 +11501,7 @@
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M237" t="s">
         <v>18</v>
@@ -11570,7 +11543,7 @@
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M238" t="s">
         <v>18</v>
@@ -11680,7 +11653,7 @@
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I242" t="s">
         <v>18</v>
@@ -11735,7 +11708,7 @@
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I243" t="s">
         <v>18</v>
@@ -11790,7 +11763,7 @@
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I244" t="s">
         <v>18</v>
@@ -11845,7 +11818,7 @@
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I245" t="s">
         <v>18</v>
@@ -11912,7 +11885,7 @@
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>18</v>
@@ -11962,7 +11935,7 @@
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>18</v>
@@ -12012,7 +11985,7 @@
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>18</v>
@@ -12062,7 +12035,7 @@
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>18</v>
@@ -12124,7 +12097,7 @@
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>18</v>
@@ -12177,7 +12150,7 @@
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>18</v>
@@ -12230,7 +12203,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>18</v>
@@ -12283,7 +12256,7 @@
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>18</v>
@@ -13199,7 +13172,9 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13741,7 +13716,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -13759,27 +13734,6 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
         <v>18</v>
       </c>
       <c r="O15" t="s">
@@ -13800,25 +13754,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -13859,17 +13795,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
@@ -13877,27 +13807,6 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">

--- a/MODPRdataset.xlsx
+++ b/MODPRdataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbert\Github\Modelleren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ACF7A3-0E36-4E05-97CD-7ED530B8F108}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F3DDA7-B79B-48A8-AD61-16B69BA8D772}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{24CE0B4A-80F4-8A44-8D6D-9FAD261C3CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tasks" sheetId="1" r:id="rId1"/>
@@ -3352,11 +3352,11 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AG280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B214" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
+      <selection pane="bottomRight" activeCell="AF214" sqref="AF214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13173,7 +13173,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:N17"/>
+      <selection activeCell="H20" sqref="H20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13806,7 +13806,7 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>18</v>
       </c>
       <c r="O17" t="s">
